--- a/Data/Trial Data/PowerWorldFormat.xlsx
+++ b/Data/Trial Data/PowerWorldFormat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
   <si>
     <t>Interface Name</t>
   </si>
@@ -34,19 +34,10 @@
     <t>Monitored Element Name</t>
   </si>
   <si>
-    <t>L_CIBOLO8_1Y-L_SCHERT8_1Y FLO HILLCTY_-L_MARION</t>
-  </si>
-  <si>
-    <t>TNCADDO___1-TNAPACHE__1 FLO TNTEJAS-TNGRENB</t>
-  </si>
-  <si>
-    <t>SONR4A-CAUTHORN4A FLO L_ODLASW-L_BLEWE</t>
-  </si>
-  <si>
-    <t>BALLINGE2A-BALEXTP2 FLO BALLINGE-COLE_IVI</t>
-  </si>
-  <si>
-    <t>RINCON4A-WHITEPT4A FLO HECKER4A-WHITEPT4</t>
+    <t>ASHERTON4A-CATARINA4 FLO MIGUEL5-LOBO7A</t>
+  </si>
+  <si>
+    <t>L_WIRTZ_8_1Y-L_FLATRO8_1Y FLO L_WIRTZ_-L_STARCK</t>
   </si>
   <si>
     <t>BALEXTP2-NOVC2A FLO BALLINGE-COLE_IVI</t>
@@ -55,196 +46,274 @@
     <t>GRESHRD_8-NACPW_1_8 FLO BASE</t>
   </si>
   <si>
-    <t>FTST4A-SOLSTICE4A FLO LINTERN-REROCK</t>
-  </si>
-  <si>
-    <t>HAMILTON4B-MAXWELL4A FLO ASHERTON-L_BEVO_</t>
-  </si>
-  <si>
-    <t>FALCON8-FALCONSW4A FLO FALCON8-FALCONS</t>
-  </si>
-  <si>
-    <t>SO_TEX__345A-DOW____POI_5 FLO W_A_P__-HILLJE_</t>
-  </si>
-  <si>
-    <t>ALPINE2A-BRONCO2A FLO FTST2A-COCS2A</t>
-  </si>
-  <si>
-    <t>CELANEBI4A-N_SHARPE4C FLO B_DAVIS4-ALAZAN4A</t>
-  </si>
-  <si>
-    <t>HAMILTON4A-MAVERICK4A FLO ASHERTON-L_BEVO_</t>
-  </si>
-  <si>
-    <t>MCNEILN-HOWARDLN FLO DUNLAP8-DECK_MB3</t>
-  </si>
-  <si>
-    <t>BRANCH 7608 7610 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 5211 7044 1</t>
-  </si>
-  <si>
-    <t>BRANCH 38710 38720 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 38530 38575 1</t>
-  </si>
-  <si>
-    <t>BRANCH 6515 8259 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 7425 78424 1</t>
-  </si>
-  <si>
-    <t>BRANCH 6338 6341 1</t>
+    <t>FRPHILLT2A-L_GILLES9_1Y FLO YELWJCKT-L_FORTM</t>
+  </si>
+  <si>
+    <t>TRUMBULL8-ENNSSW_8 FLO ENNS_W_8-WAX_8</t>
+  </si>
+  <si>
+    <t>RINCON4A-WHITEPT4A FLO PORTLAND-MCCAMPB</t>
+  </si>
+  <si>
+    <t>DOLRHIDE_8-NOTSW_1_8 FLO MOSS_8-YUKONSS_</t>
+  </si>
+  <si>
+    <t>FISHERRD_8-WCHTFLLS1_8 FLO BOWMAN_A-WFALLS_S</t>
+  </si>
+  <si>
+    <t>PECKTAP_9-SPRABERY_9 FLO BIGSPRIG-BIGSPRIG</t>
+  </si>
+  <si>
+    <t>COLETO4A-VICTORIA4A FLO COLETO4A-VICTORIA</t>
+  </si>
+  <si>
+    <t>VICTORIA4A-MAGRUDER4A FLO L_FPPYD1-L_FAYETT</t>
+  </si>
+  <si>
+    <t>DEERPK96T2_8-CARDIF_S96_8 FLO P_H_R_9-BAYOU__</t>
+  </si>
+  <si>
+    <t>RIOPECOS4A-TNWDWRDTAP1 FLO BASE</t>
+  </si>
+  <si>
+    <t>TNMAINLAND1-TNALVIN___1 FLO P_H_R__-MEADOW_</t>
+  </si>
+  <si>
+    <t>REDCREEK4A-BENFICKL4A FLO REDCREEK-COKESTRE</t>
+  </si>
+  <si>
+    <t>HAMILTON4B-MAXWELL4A FLO ILLN4A-L_FORTL</t>
+  </si>
+  <si>
+    <t>ESCONDID4A-EAGLE_PS4A FLO ESCONDID-EAGLE_PS</t>
+  </si>
+  <si>
+    <t>JEFFER_POI_8-S_CHAN_C06_8 FLO JEFFER_-COLEGE0</t>
+  </si>
+  <si>
+    <t>BRANCH 8283 8970 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 5901 80219 1</t>
+  </si>
+  <si>
+    <t>BRANCH 7104 7111 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 7104 7351 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6341 6342 1</t>
   </si>
   <si>
     <t>BRANCHOPEN 6340 6360 1</t>
   </si>
   <si>
+    <t>BRANCH 3301 120162 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6392 7130 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6364 76390 1</t>
+  </si>
+  <si>
+    <t>BRANCH 221 2329 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 2241 2321 1</t>
+  </si>
+  <si>
     <t>BRANCH 8418 8961 1</t>
   </si>
   <si>
-    <t>BRANCHOPEN 8565 8961 1</t>
-  </si>
-  <si>
-    <t>BRANCH 6341 6342 1</t>
-  </si>
-  <si>
-    <t>BRANCH 3301 120162 1</t>
-  </si>
-  <si>
-    <t>BRANCH 6630 60385 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 60383 132331 1</t>
+    <t>BRANCHOPEN 8414 80470 1</t>
+  </si>
+  <si>
+    <t>BRANCH 1149 131853 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1019 1250 2</t>
+  </si>
+  <si>
+    <t>BRANCH 1427 1448 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1423 1464 1</t>
+  </si>
+  <si>
+    <t>BRANCH 1222 1330 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1322 1323 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8162 8172 2</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8162 8172 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8172 8194 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 7056 7057 1</t>
+  </si>
+  <si>
+    <t>BRANCH 40442 42240 96</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 42014 42160 96</t>
+  </si>
+  <si>
+    <t>BRANCH 6601 38330 1</t>
+  </si>
+  <si>
+    <t>BRANCH 38830 39030 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 42000 43030 99</t>
+  </si>
+  <si>
+    <t>BRANCH 6442 6473 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6442 6449 1</t>
   </si>
   <si>
     <t>BRANCH 8257 8998 1</t>
   </si>
   <si>
-    <t>BRANCHOPEN 8283 78280 1</t>
-  </si>
-  <si>
-    <t>BRANCH 5799 80106 2</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 5799 80106 1</t>
-  </si>
-  <si>
-    <t>BRANCH 5915 42500 27</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 44000 44200 64</t>
-  </si>
-  <si>
-    <t>BRANCH 6666 6674 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 6628 6663 1</t>
-  </si>
-  <si>
-    <t>BRANCH 8516 85007 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 8458 8515 1</t>
-  </si>
-  <si>
-    <t>BRANCH 8255 8692 1</t>
-  </si>
-  <si>
-    <t>BRANCH 9079 9217 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 9045 9188 1</t>
+    <t>BRANCHOPEN 6564 76579 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8260 8270 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8260 8270 2</t>
+  </si>
+  <si>
+    <t>BRANCH 41240 41371 06</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 41240 42312 6</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>DHILMAR5</t>
-  </si>
-  <si>
-    <t>STEJGR38</t>
-  </si>
-  <si>
-    <t>SBRAUVA8</t>
+    <t>SLOBSA25</t>
+  </si>
+  <si>
+    <t>DFERSTA8</t>
   </si>
   <si>
     <t>SCOLBAL8</t>
   </si>
   <si>
-    <t>DHECWHI8</t>
-  </si>
-  <si>
     <t>BASE CASE</t>
   </si>
   <si>
-    <t>SWCSBOO8</t>
-  </si>
-  <si>
-    <t>SBEVASH8</t>
-  </si>
-  <si>
-    <t>SFALFAL8</t>
-  </si>
-  <si>
-    <t>DWAPHLJ5</t>
-  </si>
-  <si>
-    <t>SCOCBAR9</t>
-  </si>
-  <si>
-    <t>SALAN_28</t>
-  </si>
-  <si>
-    <t>DAUSDUN8</t>
-  </si>
-  <si>
-    <t>CIBOLO-SCHERT 138KV 293T304_1</t>
-  </si>
-  <si>
-    <t>CADDOTN-APACHE 138KV G138_4B_1</t>
-  </si>
-  <si>
-    <t>SONR-CTHR 138KV CTHR_SONR1_1</t>
-  </si>
-  <si>
-    <t>BALLINGE-HUMBLTAP 69KV BALLIN_HUMBLT1_1</t>
+    <t>SFORYEL8</t>
+  </si>
+  <si>
+    <t>SMGIENW8</t>
+  </si>
+  <si>
+    <t>SPORWH28</t>
+  </si>
+  <si>
+    <t>SECNMO28</t>
+  </si>
+  <si>
+    <t>DBOMLKW8</t>
+  </si>
+  <si>
+    <t>XBSP89</t>
+  </si>
+  <si>
+    <t>SVICCO28</t>
+  </si>
+  <si>
+    <t>DFPPFAY5</t>
+  </si>
+  <si>
+    <t>DPHRBBP8</t>
+  </si>
+  <si>
+    <t>MLOTYUC8</t>
+  </si>
+  <si>
+    <t>SMDOPHR5</t>
+  </si>
+  <si>
+    <t>SSACRED8</t>
+  </si>
+  <si>
+    <t>SILLFTL8</t>
+  </si>
+  <si>
+    <t>SEAGES28</t>
+  </si>
+  <si>
+    <t>DJFSCGR8</t>
+  </si>
+  <si>
+    <t>ASHERTON-CATARINA 138KV ASHERT_CATARI1_1</t>
+  </si>
+  <si>
+    <t>WIRTZ-FLATRO 138KV 38T365_1</t>
+  </si>
+  <si>
+    <t>HUMBLTAP-NOVICTAP 69KV HUMBLT_NOVICT1_1</t>
+  </si>
+  <si>
+    <t>GRDSW-NACPW 138KV NAC_L1_1</t>
+  </si>
+  <si>
+    <t>GILLES-FRPHILLT 69KV FRPHIL_GILLES1_1</t>
+  </si>
+  <si>
+    <t>ENSSW-TRU 138KV 921__D</t>
   </si>
   <si>
     <t>RINCON-WHITE_PT 138KV RINCON_WHITE_2_1</t>
   </si>
   <si>
-    <t>HUMBLTAP-NOVICTAP 69KV HUMBLT_NOVICT1_1</t>
-  </si>
-  <si>
-    <t>GRDSW-NACPW 138KV NAC_L1_1</t>
-  </si>
-  <si>
-    <t>FTST-SOLSTICE 138KV FTST_SOLSTI1_1</t>
+    <t>DHIDE-NOTSW 138KV 6100__F</t>
+  </si>
+  <si>
+    <t>FSHSW-WFALS 138KV 6558__B</t>
+  </si>
+  <si>
+    <t>SBYSW-PCKTP 69KV 6820__C</t>
+  </si>
+  <si>
+    <t>COLETO CREEK-VICTORIA 138KV COLETO_VICTOR2</t>
+  </si>
+  <si>
+    <t>VICTORIA-MAGRUDER 138KV MAGRUD_VICTOR2_1</t>
+  </si>
+  <si>
+    <t>DE-CA 138.10001KV CA_DE_96_A</t>
+  </si>
+  <si>
+    <t>RIOPECOS-WOODWRD2 138KV RIOPEC_WOODW21_1</t>
+  </si>
+  <si>
+    <t>ALVIN-MAINLAND 138KV 138_ALV_MNL_1</t>
+  </si>
+  <si>
+    <t>REDCREEK-BENFICKL 138KV BENFIC_REDCRE1_1</t>
   </si>
   <si>
     <t>MAXWELL-HAMILTON 138KV HAMILT_MAXWEL1_1</t>
   </si>
   <si>
-    <t>FALCNSW-FALCON 138KV FALCON_FALCNS2_1</t>
-  </si>
-  <si>
-    <t>STP-DOW 345KV DOWSTP27_A</t>
-  </si>
-  <si>
-    <t>BRONCO-ALPINE 69KV ALPINE_BRONCO1_1</t>
-  </si>
-  <si>
-    <t>N_SHARPE-CELANEBI 138KV CELANE_N_SHAR1_1</t>
-  </si>
-  <si>
-    <t>HAMILTON-MAVERICK 138KV HAMILT_MAVERI1_1</t>
-  </si>
-  <si>
-    <t>HWRDLN-MCNEIL 138KV CKT_972_1</t>
+    <t>ESCONDID-EAGLE_PS 138KV EAGLEP_ESCOND1_1</t>
+  </si>
+  <si>
+    <t>JFS-SC 138KV JFSSC_06_A</t>
   </si>
 </sst>
 </file>
@@ -602,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,19 +705,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -659,19 +728,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -682,19 +751,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -705,19 +774,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -728,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -751,19 +820,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -774,19 +843,19 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -794,22 +863,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -820,19 +889,19 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -840,22 +909,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -866,19 +935,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -886,22 +955,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -912,19 +981,19 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -935,19 +1004,19 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -958,19 +1027,19 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -981,19 +1050,19 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1004,19 +1073,19 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1027,19 +1096,19 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1050,19 +1119,19 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1073,19 +1142,19 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1096,19 +1165,19 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1119,19 +1188,19 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1142,19 +1211,19 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1165,19 +1234,19 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1188,19 +1257,19 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1211,19 +1280,19 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1231,22 +1300,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1257,19 +1326,19 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1277,22 +1346,183 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trial Data/PowerWorldFormat.xlsx
+++ b/Data/Trial Data/PowerWorldFormat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="442">
   <si>
     <t>Interface Name</t>
   </si>
@@ -34,61 +34,406 @@
     <t>Monitored Element Name</t>
   </si>
   <si>
+    <t>BALLINGE2A-BALEXTP2 FLO BALLINGE-COLE_IVI</t>
+  </si>
+  <si>
+    <t>L_CUERO_8_1Y-THOMASTN4B FLO COLETO4A-VICTORIA</t>
+  </si>
+  <si>
+    <t>ABNTHWST4A-HENDRICK4A FLO VENUS_N5-MDLTHELP</t>
+  </si>
+  <si>
+    <t>TNCADDO___1-TNAPACHE__1 FLO TNTEJAS-TNGRENB</t>
+  </si>
+  <si>
+    <t>MORRIS_D2_8-EAGLEMNT2_8 FLO SAGINAW1-BLUEMD1_</t>
+  </si>
+  <si>
+    <t>STER2A-STCO2A FLO BIGSPRIG-BIGSPRIG</t>
+  </si>
+  <si>
+    <t>LEW_JNS_P8-TNLAKEPNTE1 FLO CRLTN_NW-LEWISVL</t>
+  </si>
+  <si>
+    <t>CELANEBI4A-N_SHARPE4C FLO LH1DUM-LON_HIL</t>
+  </si>
+  <si>
+    <t>RIOPECOS4A-TNWDWRDTAP1 FLO SOLSTIC-PIGCREE</t>
+  </si>
+  <si>
+    <t>FDRAN2A-OZNC2A FLO SONR4A-FDRAN4A</t>
+  </si>
+  <si>
+    <t>KNAPP_8-SCURYCHV_8 FLO DERMOTT-SCURCNT</t>
+  </si>
+  <si>
+    <t>L_CUERO_8_1Y-THOMASTN4B FLO BLESSING-BLESSING</t>
+  </si>
+  <si>
+    <t>MCNEILN-HOWARDLN FLO DUNLAP8-DECK_MB3</t>
+  </si>
+  <si>
+    <t>FALCON8-FALCONSW4A FLO FALCON8-FALCONS</t>
+  </si>
+  <si>
+    <t>V_DUPSW4A-VICTORIA4A FLO LOLITA4A-FORMOSA4</t>
+  </si>
+  <si>
+    <t>BURNSSUB8-RIOHONDO4A FLO BASE</t>
+  </si>
+  <si>
     <t>ASHERTON4A-CATARINA4 FLO MIGUEL5-LOBO7A</t>
   </si>
   <si>
+    <t>I_DUPSW4A-I_DUPP14B FLO I_DUPSW4-I_DUPP14</t>
+  </si>
+  <si>
+    <t>WRBRTN8-VICTORIA4A FLO COLETO7A-LONHILL7</t>
+  </si>
+  <si>
+    <t>PILONCIL4-NLARSW4B FLO NEDIN7A-POMELO7A</t>
+  </si>
+  <si>
+    <t>BALEXTP2-NOVC2A FLO BASE</t>
+  </si>
+  <si>
+    <t>COLJ2A-SANA2A FLO BALLINGE-COLE_IVI</t>
+  </si>
+  <si>
+    <t>PILONCIL4-NLARSW4B FLO MIGUEL5-LOBO7A</t>
+  </si>
+  <si>
+    <t>BALEXTP2-NOVC2A FLO BALLINGE-COLE_IVI</t>
+  </si>
+  <si>
+    <t>LUFKNSS_8-NACOGST_8 FLO MARTINLK-STRYKER_</t>
+  </si>
+  <si>
+    <t>JATN2A-CLRM2A FLO MRGNCRK_-WSTBROOK</t>
+  </si>
+  <si>
+    <t>SO_TEX__345A-JONCRK__B345 FLO W_A_P__-HILLJE_</t>
+  </si>
+  <si>
+    <t>RINCON4A-WHITEPT4A FLO HECKER4A-WHITEPT4</t>
+  </si>
+  <si>
+    <t>FRPHILLT2A-L_GILLES9_1Y FLO YELWJCKT-L_FORTM</t>
+  </si>
+  <si>
+    <t>KNAPP_8-SCURYCHV_8 FLO SCURCNT-LONG_DR</t>
+  </si>
+  <si>
+    <t>BARNHRT2A-BIGLAKE2A FLO ESMERALD-WOLFBER</t>
+  </si>
+  <si>
+    <t>JATN2A-CLRM2A FLO LONG_DR-MESQCR</t>
+  </si>
+  <si>
+    <t>CHEYENTA_8-NOTSW_1_8 FLO MOSS_8-YUKONSS_</t>
+  </si>
+  <si>
+    <t>L_CIBOLO8_1Y-L_SCHERT8_1Y FLO HILLCTY_-L_MARION</t>
+  </si>
+  <si>
+    <t>ENNS_W_8-ENNS_S_8 FLO ENNS_W_8-ENNSSW_8</t>
+  </si>
+  <si>
+    <t>FRNY1_8-DUCKCK1T_8 FLO FRNY1_5-ROYSE1_T</t>
+  </si>
+  <si>
+    <t>CELANEBI4A-N_SHARPE4C FLO COLETO7A-LONHILL7</t>
+  </si>
+  <si>
+    <t>GENRUBR_8-SWPORTAP_8 FLO WOLFSS_8-MONAHN2T</t>
+  </si>
+  <si>
+    <t>ESCONDID4A-EAGLE_PS4A FLO ESCONDID-EAGLE_PS</t>
+  </si>
+  <si>
+    <t>RIOPECOS4A-TNWDWRDTAP1 FLO RIOPECOS-WDWRDTP4</t>
+  </si>
+  <si>
+    <t>SAPOWER4B-TREADWEL4A FLO YELWJCKT-YELWJCKT</t>
+  </si>
+  <si>
+    <t>TXPET__POI_9-TXPET__X33T9 FLO BASE</t>
+  </si>
+  <si>
+    <t>SPUR4A-ASPM4A FLO SCURRYSWC-SUN_8</t>
+  </si>
+  <si>
+    <t>ROGERSHL-BOSQUESW8 FLO BOSQUESW5-ELM_MOTT</t>
+  </si>
+  <si>
+    <t>CELANEBI4A-N_SHARPE4C FLO LONHILL7-N_SHARP</t>
+  </si>
+  <si>
+    <t>LOLITA4A-VICTORIA4A FLO BLESSING-LOLITA4A</t>
+  </si>
+  <si>
+    <t>SAGT2A-CARLBDTP2A FLO OAKC4A-CEDRHILL</t>
+  </si>
+  <si>
+    <t>YELWJCKT4B-TREADWEL4A FLO EDISON7-OERSTED</t>
+  </si>
+  <si>
+    <t>TNMAINLAND1-TNALVIN___1 FLO P_H_R__-MEADOW_</t>
+  </si>
+  <si>
+    <t>L_WIRTZ_8_1Y-L_STARCK8_1Y FLO L_FERGUS-L_HORSBA</t>
+  </si>
+  <si>
+    <t>SONR4A-CAUTHORN4A FLO PLAINSP-CORRAL4</t>
+  </si>
+  <si>
+    <t>SO_TEX__345A-DOW____POI_5 FLO W_A_P__-HILLJE_</t>
+  </si>
+  <si>
+    <t>STRS2A-BISON2A FLO MIDW2A-BISON2A</t>
+  </si>
+  <si>
     <t>L_WIRTZ_8_1Y-L_FLATRO8_1Y FLO L_WIRTZ_-L_STARCK</t>
   </si>
   <si>
-    <t>BALEXTP2-NOVC2A FLO BALLINGE-COLE_IVI</t>
+    <t>PECKTAP_9-SPRABERY_9 FLO BIGSPRIG-BIGSPRIG</t>
+  </si>
+  <si>
+    <t>TNWEST____1-TNTI______1 FLO CRLTN_NW-LEWISVL</t>
+  </si>
+  <si>
+    <t>DRUMRIGT_8-FORSANTA_8 FLO BASE</t>
+  </si>
+  <si>
+    <t>L_CICO__8_1Y-L_COMFOR8_1Y FLO CAGNON_5-L_KENDAL</t>
+  </si>
+  <si>
+    <t>PICACHO4A-AMISTD4A FLO BASE</t>
+  </si>
+  <si>
+    <t>TULECNYN-WHIT_RVR FLO TULECNY-WHIT_RV</t>
+  </si>
+  <si>
+    <t>GRESHRD_8-NACPW_1_8 FLO PSG_PS-PSG_1_</t>
+  </si>
+  <si>
+    <t>DOLRHIDE_8-NOTSW_1_8 FLO MOSS_8-YUKONSS_</t>
+  </si>
+  <si>
+    <t>BLESSING4A-LOLITA4A FLO SO_TEX__-HILLJE_</t>
+  </si>
+  <si>
+    <t>LOLITA4A-FORMOSA4A FLO V_DUPSW4-VICTORIA</t>
+  </si>
+  <si>
+    <t>CELANEBI4A-N_SHARPE4C FLO LH2DUM-LON_HIL</t>
+  </si>
+  <si>
+    <t>TN16TH_ST_1-TNWDWRDTAP1 FLO BASE</t>
+  </si>
+  <si>
+    <t>SULSPG_8-COOPERLK_T8 FLO PARIS_SW-PRSSW1_</t>
+  </si>
+  <si>
+    <t>HAMILTON4A-MAVERICK4A FLO EDISON7-OERSTED</t>
+  </si>
+  <si>
+    <t>GLDBSKR2-COLJ2A FLO BALLINGE-COLE_IVI</t>
+  </si>
+  <si>
+    <t>FRPHILLT2A-MASN2A FLO YELWJCKT-L_FORTM</t>
+  </si>
+  <si>
+    <t>RIOPECOS4A-TNWDWRDTAP1 FLO BASE</t>
+  </si>
+  <si>
+    <t>COLETO4A-VICTORIA4A FLO COLETO4A-VICTORIA</t>
+  </si>
+  <si>
+    <t>V_DUPSW4A-VICTORIA4A FLO V_DUPSW4-RUPLEYT</t>
+  </si>
+  <si>
+    <t>OKLA7A-DCTM_DCTMG1 FLO MIDLET_5-FSCOGEN_</t>
+  </si>
+  <si>
+    <t>LINTERNA4A-SOLSTICE4A FLO FTST4A-TNAIRPO</t>
+  </si>
+  <si>
+    <t>HAMILTON4A-MAVERICK4A FLO L_ODLASW-L_BLEWE</t>
+  </si>
+  <si>
+    <t>BIGWELLSSUB9-BRUNDAGESUB9 FLO ASHERTON-L_BEVO_</t>
+  </si>
+  <si>
+    <t>L_ECMORN8_1Y-L_PARKWA8_1Y FLO L_ZORN__-L_MARION</t>
+  </si>
+  <si>
+    <t>V_DUPSW4A-VICTORIA4A FLO WRBRTN8-MEDIOCR4</t>
+  </si>
+  <si>
+    <t>ESTES4A-PCNBYU4A FLO LEONSW_8-CISC4A</t>
+  </si>
+  <si>
+    <t>AMOCO3BA_T8-ANDRCOSO_8 FLO MOSS_8-YUKONSS_</t>
+  </si>
+  <si>
+    <t>SAPOWER4B-TREADWEL4A FLO L_MARBFA-L_LAKEWA</t>
+  </si>
+  <si>
+    <t>FTST4A-SOLSTICE4A FLO YUCCADR_-GASPADT</t>
+  </si>
+  <si>
+    <t>JEFFER_POI_8-S_CHAN_C06_8 FLO CHAMBR_-KING___</t>
+  </si>
+  <si>
+    <t>PILONCIL4-NLARSW4B FLO ESCONDID-GANSO4A</t>
   </si>
   <si>
     <t>GRESHRD_8-NACPW_1_8 FLO BASE</t>
   </si>
   <si>
-    <t>FRPHILLT2A-L_GILLES9_1Y FLO YELWJCKT-L_FORTM</t>
-  </si>
-  <si>
-    <t>TRUMBULL8-ENNSSW_8 FLO ENNS_W_8-WAX_8</t>
-  </si>
-  <si>
-    <t>RINCON4A-WHITEPT4A FLO PORTLAND-MCCAMPB</t>
-  </si>
-  <si>
-    <t>DOLRHIDE_8-NOTSW_1_8 FLO MOSS_8-YUKONSS_</t>
-  </si>
-  <si>
-    <t>FISHERRD_8-WCHTFLLS1_8 FLO BOWMAN_A-WFALLS_S</t>
-  </si>
-  <si>
-    <t>PECKTAP_9-SPRABERY_9 FLO BIGSPRIG-BIGSPRIG</t>
-  </si>
-  <si>
-    <t>COLETO4A-VICTORIA4A FLO COLETO4A-VICTORIA</t>
+    <t>GRESHRD_8-NACPW_1_8 FLO L_DIVID-CAPRID</t>
+  </si>
+  <si>
+    <t>BURNSSUB8-RIOHONDO4A FLO RIOHONDO-NEDIN7A</t>
   </si>
   <si>
     <t>VICTORIA4A-MAGRUDER4A FLO L_FPPYD1-L_FAYETT</t>
   </si>
   <si>
-    <t>DEERPK96T2_8-CARDIF_S96_8 FLO P_H_R_9-BAYOU__</t>
-  </si>
-  <si>
-    <t>RIOPECOS4A-TNWDWRDTAP1 FLO BASE</t>
-  </si>
-  <si>
-    <t>TNMAINLAND1-TNALVIN___1 FLO P_H_R__-MEADOW_</t>
-  </si>
-  <si>
-    <t>REDCREEK4A-BENFICKL4A FLO REDCREEK-COKESTRE</t>
-  </si>
-  <si>
-    <t>HAMILTON4B-MAXWELL4A FLO ILLN4A-L_FORTL</t>
-  </si>
-  <si>
-    <t>ESCONDID4A-EAGLE_PS4A FLO ESCONDID-EAGLE_PS</t>
-  </si>
-  <si>
-    <t>JEFFER_POI_8-S_CHAN_C06_8 FLO JEFFER_-COLEGE0</t>
+    <t>GREENLK2A-WEAVERRD2A FLO V_DUPSW4-VICTORIA</t>
+  </si>
+  <si>
+    <t>I_DUPSW4A-MCCAMPB4A FLO I_DUPSW4-MCCAMPB</t>
+  </si>
+  <si>
+    <t>HECKER4A-WHITEPT4A FLO PORTLAND-MCCAMPB</t>
+  </si>
+  <si>
+    <t>FALFUR2A-PREMONT2A FLO LOBO4A-LAQUINT</t>
+  </si>
+  <si>
+    <t>ROARINGS2A-AFTON2A FLO PADR2A-PADU2A</t>
+  </si>
+  <si>
+    <t>I_DUPSW4A-I_DUPP14B FLO I_DUPSW4-AIR_LIQS</t>
+  </si>
+  <si>
+    <t>HILLCTY_5-L_MARION5_1Y FLO ELMCREEK-SKYLINE_</t>
+  </si>
+  <si>
+    <t>L_CUERO_8_1Y-THOMASTN4B FLO ELMCREEK-L_MARION</t>
+  </si>
+  <si>
+    <t>DRUMRIGT_8-FORSANTA_8 FLO WINKSS_8-LOVING_8</t>
+  </si>
+  <si>
+    <t>RAILROAD8824-S_MISSIN4A FLO S_MCALLN-BENTSEN</t>
+  </si>
+  <si>
+    <t>PICACHO4A-AMISTD4A FLO WOLFRIDGE-WHTTAI</t>
+  </si>
+  <si>
+    <t>AMOCO3BA_T8-ANDRCOSO_8 FLO WINKSS_8-MIDWAY_</t>
+  </si>
+  <si>
+    <t>CRLTN_NW_E8-TNLAKEPNTE1 FLO CRLTN_NW-LEWISVL</t>
+  </si>
+  <si>
+    <t>PECKTAP_9-SPRABERY_9 FLO OAKC4A-CEDRHILL</t>
+  </si>
+  <si>
+    <t>L_FAYETT8_1Y-L_WINCHE8_1Y FLO L_FPPYD2-LYTTON34</t>
+  </si>
+  <si>
+    <t>BRANCH 6338 6341 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6340 6360 1</t>
+  </si>
+  <si>
+    <t>BRANCH 7244 89450 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8162 8172 2</t>
+  </si>
+  <si>
+    <t>BRANCH 6228 60387 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1907 1940 1</t>
+  </si>
+  <si>
+    <t>BRANCH 38710 38720 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 38530 38575 1</t>
+  </si>
+  <si>
+    <t>BRANCH 1864 11860 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1957 2071 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6435 6436 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1322 1323 1</t>
+  </si>
+  <si>
+    <t>BRANCH 1972 37010 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 2361 33646 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8516 85007 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8449 84521 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6601 38330 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 60385 60393 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6550 6552 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6515 6562 1</t>
+  </si>
+  <si>
+    <t>BRANCH 1310 1312 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 11305 11318 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8121 8123 1</t>
+  </si>
+  <si>
+    <t>BRANCH 9079 9217 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 9045 9188 1</t>
+  </si>
+  <si>
+    <t>BRANCH 5799 80106 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 5799 80106 2</t>
+  </si>
+  <si>
+    <t>BRANCH 8143 8172 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8125 8126 1</t>
+  </si>
+  <si>
+    <t>BRANCH 5763 8319 1</t>
   </si>
   <si>
     <t>BRANCH 8283 8970 1</t>
@@ -97,223 +442,904 @@
     <t>BRANCHOPEN 5901 80219 1</t>
   </si>
   <si>
+    <t>BRANCH 8422 8819 2</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8422 8817 1</t>
+  </si>
+  <si>
+    <t>BRANCH 5607 8172 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8164 8455 1</t>
+  </si>
+  <si>
+    <t>BRANCH 80481 88909 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8383 8574 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6341 6342 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6346 6353 1</t>
+  </si>
+  <si>
+    <t>BRANCH 3118 3316 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 3100 3109 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6153 6197 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1033 1348 1</t>
+  </si>
+  <si>
+    <t>BRANCH 5915 42530 18</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 44000 44200 64</t>
+  </si>
+  <si>
+    <t>BRANCH 8418 8961 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8565 8961 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6392 7130 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6364 76390 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 11318 59900 2</t>
+  </si>
+  <si>
+    <t>BRANCH 6530 6533 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6525 60375 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 59900 181553 1</t>
+  </si>
+  <si>
+    <t>BRANCH 1147 131853 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1019 1250 2</t>
+  </si>
+  <si>
+    <t>BRANCH 7608 7610 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 5211 7044 1</t>
+  </si>
+  <si>
+    <t>BRANCH 2241 2324 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 2241 2329 1</t>
+  </si>
+  <si>
+    <t>BRANCH 2438 2934 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 2437 2474 1</t>
+  </si>
+  <si>
+    <t>BRANCH 5799 80106 2</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 5799 80106 1</t>
+  </si>
+  <si>
+    <t>BRANCH 1053 1099 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1013 1107 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8260 8270 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8260 8270 2</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6601 6632 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6480 60423 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6364 6365 P1</t>
+  </si>
+  <si>
+    <t>BRANCH 41560 41561 33</t>
+  </si>
+  <si>
+    <t>BRANCH 6150 6158 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 729 1064 1</t>
+  </si>
+  <si>
+    <t>BRANCH 249 252 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 246 3406 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8455 85000 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8125 8172 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8121 8125 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6416 6437 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6335 6425 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6365 60423 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 60616 60709 1</t>
+  </si>
+  <si>
+    <t>BRANCH 38830 39030 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 42000 43030 99</t>
+  </si>
+  <si>
+    <t>BRANCH 7104 7351 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 7126 7128 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6515 8259 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 60388 60389 1</t>
+  </si>
+  <si>
+    <t>BRANCH 5915 42500 27</t>
+  </si>
+  <si>
+    <t>BRANCH 6547 60395 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6549 60395 1</t>
+  </si>
+  <si>
     <t>BRANCH 7104 7111 1</t>
   </si>
   <si>
     <t>BRANCHOPEN 7104 7351 1</t>
   </si>
   <si>
-    <t>BRANCH 6341 6342 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 6340 6360 1</t>
+    <t>BRANCH 1222 1330 1</t>
+  </si>
+  <si>
+    <t>BRANCH 37060 37080 1</t>
+  </si>
+  <si>
+    <t>BRANCH 1331 1335 1</t>
+  </si>
+  <si>
+    <t>BRANCH 7151 7155 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 5056 7046 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8684 8686 1</t>
+  </si>
+  <si>
+    <t>BRANCH 79503 79505 2</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 79503 79505 1</t>
   </si>
   <si>
     <t>BRANCH 3301 120162 1</t>
   </si>
   <si>
-    <t>BRANCH 6392 7130 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 6364 76390 1</t>
-  </si>
-  <si>
-    <t>BRANCH 221 2329 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 2241 2321 1</t>
-  </si>
-  <si>
-    <t>BRANCH 8418 8961 1</t>
+    <t>BRANCHOPEN 110622 110625 G1</t>
+  </si>
+  <si>
+    <t>BRANCH 1149 131853 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8121 8125 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 5915 44200 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8125 8126 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8143 8172 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8450 84522 2</t>
+  </si>
+  <si>
+    <t>BRANCH 38310 38330 1</t>
+  </si>
+  <si>
+    <t>BRANCH 1814 1822 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1686 24094 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8255 8692 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6345 6346 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6392 6393 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8162 8172 2</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8162 8172 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8143 88143 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6100 140001 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1021 1025 1</t>
+  </si>
+  <si>
+    <t>BRANCH 60383 60385 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6630 38340 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 7425 78424 1</t>
+  </si>
+  <si>
+    <t>BRANCH 5868 5870 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8283 78280 1</t>
+  </si>
+  <si>
+    <t>BRANCH 7463 7611 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 7042 7044 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 5607 8912 1</t>
+  </si>
+  <si>
+    <t>BRANCH 60365 60773 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1624 6317 1</t>
+  </si>
+  <si>
+    <t>BRANCH 1150 1157 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 7348 7538 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6630 60385 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1009 60397 1</t>
+  </si>
+  <si>
+    <t>BRANCH 41240 41371 06</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 40255 40900 97</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8260 8267 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 76090 180759 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8318 8383 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8172 8194 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 7056 7057 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8159 8572 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8422 80470 2</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8422 80470 1</t>
+  </si>
+  <si>
+    <t>BRANCH 8565 8961 1</t>
   </si>
   <si>
     <t>BRANCHOPEN 8414 80470 1</t>
   </si>
   <si>
-    <t>BRANCH 1149 131853 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 1019 1250 2</t>
-  </si>
-  <si>
-    <t>BRANCH 1427 1448 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 1423 1464 1</t>
-  </si>
-  <si>
-    <t>BRANCH 1222 1330 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 1322 1323 1</t>
-  </si>
-  <si>
-    <t>BRANCH 8162 8172 2</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 8162 8172 1</t>
-  </si>
-  <si>
-    <t>BRANCH 8172 8194 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 7056 7057 1</t>
-  </si>
-  <si>
-    <t>BRANCH 40442 42240 96</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 42014 42160 96</t>
-  </si>
-  <si>
-    <t>BRANCH 6601 38330 1</t>
-  </si>
-  <si>
-    <t>BRANCH 38830 39030 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 42000 43030 99</t>
-  </si>
-  <si>
-    <t>BRANCH 6442 6473 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 6442 6449 1</t>
-  </si>
-  <si>
-    <t>BRANCH 8257 8998 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 6564 76579 1</t>
-  </si>
-  <si>
-    <t>BRANCH 8260 8270 1</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 8260 8270 2</t>
-  </si>
-  <si>
-    <t>BRANCH 41240 41371 06</t>
-  </si>
-  <si>
-    <t>BRANCHOPEN 41240 42312 6</t>
+    <t>BRANCH 8508 8894 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 80221 80439 1</t>
+  </si>
+  <si>
+    <t>BRANCH 6141 6142 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 6131 6133 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8422 8978 1</t>
+  </si>
+  <si>
+    <t>BRANCH 5211 7044 2</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 5133 5371 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 5133 7044 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1074 1092 3</t>
+  </si>
+  <si>
+    <t>BRANCH 8824 80121 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 8371 8822 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 730 140282 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 1074 11236 1</t>
+  </si>
+  <si>
+    <t>BRANCH 2362 37010 1</t>
+  </si>
+  <si>
+    <t>BRANCH 7286 7306 1</t>
+  </si>
+  <si>
+    <t>BRANCHOPEN 7055 9074 1</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
+    <t>SCOLBAL8</t>
+  </si>
+  <si>
+    <t>SVICCOL8</t>
+  </si>
+  <si>
+    <t>SMDAVE25</t>
+  </si>
+  <si>
+    <t>STEJGR38</t>
+  </si>
+  <si>
+    <t>DHCKSAG8</t>
+  </si>
+  <si>
+    <t>XBSP89</t>
+  </si>
+  <si>
+    <t>DCRLLSW5</t>
+  </si>
+  <si>
+    <t>XLON58</t>
+  </si>
+  <si>
+    <t>SPIGSOL8</t>
+  </si>
+  <si>
+    <t>SSONFRI8</t>
+  </si>
+  <si>
+    <t>DMTSCOS5</t>
+  </si>
+  <si>
+    <t>XBLE58</t>
+  </si>
+  <si>
+    <t>DAUSDUN8</t>
+  </si>
+  <si>
+    <t>SFALFA28</t>
+  </si>
+  <si>
+    <t>SLOLFOR8</t>
+  </si>
+  <si>
+    <t>BASE CASE</t>
+  </si>
+  <si>
     <t>SLOBSA25</t>
   </si>
   <si>
+    <t>SI_DI_48</t>
+  </si>
+  <si>
+    <t>SCOLLON5</t>
+  </si>
+  <si>
+    <t>SPOMNED5</t>
+  </si>
+  <si>
+    <t>DENTSCS5</t>
+  </si>
+  <si>
+    <t>SHOWMGS9</t>
+  </si>
+  <si>
+    <t>DWAPHLJ5</t>
+  </si>
+  <si>
+    <t>DHECWHI8</t>
+  </si>
+  <si>
+    <t>SFORYEL8</t>
+  </si>
+  <si>
+    <t>DSCOFAR5</t>
+  </si>
+  <si>
+    <t>SESMFRI8</t>
+  </si>
+  <si>
+    <t>SMESW_L5</t>
+  </si>
+  <si>
+    <t>SECNMO28</t>
+  </si>
+  <si>
+    <t>DHILMAR5</t>
+  </si>
+  <si>
+    <t>SENSEN28</t>
+  </si>
+  <si>
+    <t>DRYSFOR5</t>
+  </si>
+  <si>
+    <t>SFALFAL8</t>
+  </si>
+  <si>
+    <t>SWLFMON8</t>
+  </si>
+  <si>
+    <t>SEAGES28</t>
+  </si>
+  <si>
+    <t>SWOORI38</t>
+  </si>
+  <si>
+    <t>XYEL88</t>
+  </si>
+  <si>
+    <t>SSCUSU28</t>
+  </si>
+  <si>
+    <t>SBOSELM5</t>
+  </si>
+  <si>
+    <t>SN_SLON5</t>
+  </si>
+  <si>
+    <t>SLOLBLE8</t>
+  </si>
+  <si>
+    <t>SCEDOA28</t>
+  </si>
+  <si>
+    <t>DBIGKEN5</t>
+  </si>
+  <si>
+    <t>SMDOPHR5</t>
+  </si>
+  <si>
+    <t>DFERHOR8</t>
+  </si>
+  <si>
+    <t>SCOMHA38</t>
+  </si>
+  <si>
+    <t>SBISMID9</t>
+  </si>
+  <si>
     <t>DFERSTA8</t>
   </si>
   <si>
-    <t>SCOLBAL8</t>
-  </si>
-  <si>
-    <t>BASE CASE</t>
-  </si>
-  <si>
-    <t>SFORYEL8</t>
-  </si>
-  <si>
-    <t>SMGIENW8</t>
+    <t>SCAGKEN5</t>
+  </si>
+  <si>
+    <t>SW_CTUL5</t>
+  </si>
+  <si>
+    <t>SPSGJF38</t>
+  </si>
+  <si>
+    <t>DSTPWHI5</t>
+  </si>
+  <si>
+    <t>DVICV_D8</t>
+  </si>
+  <si>
+    <t>XLO2N58</t>
+  </si>
+  <si>
+    <t>MLOTYUC8</t>
+  </si>
+  <si>
+    <t>XPRS58</t>
+  </si>
+  <si>
+    <t>DWINCUL8</t>
+  </si>
+  <si>
+    <t>SVICCO28</t>
+  </si>
+  <si>
+    <t>SVICV_D8</t>
+  </si>
+  <si>
+    <t>DFLCMGS5</t>
+  </si>
+  <si>
+    <t>STNAFTS8</t>
+  </si>
+  <si>
+    <t>SBRAUVA8</t>
+  </si>
+  <si>
+    <t>SBEVASH8</t>
+  </si>
+  <si>
+    <t>DMARZOR5</t>
+  </si>
+  <si>
+    <t>DLONWAR5</t>
+  </si>
+  <si>
+    <t>SCISPUT8</t>
+  </si>
+  <si>
+    <t>DMARPA_8</t>
+  </si>
+  <si>
+    <t>SHACPB38</t>
+  </si>
+  <si>
+    <t>DCHB_NB5</t>
+  </si>
+  <si>
+    <t>SESCGAN8</t>
+  </si>
+  <si>
+    <t>SCAPDI15</t>
+  </si>
+  <si>
+    <t>DRIOHAR5</t>
+  </si>
+  <si>
+    <t>DFPPFAY5</t>
+  </si>
+  <si>
+    <t>SPORWH38</t>
   </si>
   <si>
     <t>SPORWH28</t>
   </si>
   <si>
-    <t>SECNMO28</t>
-  </si>
-  <si>
-    <t>DBOMLKW8</t>
-  </si>
-  <si>
-    <t>XBSP89</t>
-  </si>
-  <si>
-    <t>SVICCO28</t>
-  </si>
-  <si>
-    <t>DFPPFAY5</t>
-  </si>
-  <si>
-    <t>DPHRBBP8</t>
-  </si>
-  <si>
-    <t>MLOTYUC8</t>
-  </si>
-  <si>
-    <t>SMDOPHR5</t>
-  </si>
-  <si>
-    <t>SSACRED8</t>
-  </si>
-  <si>
-    <t>SILLFTL8</t>
-  </si>
-  <si>
-    <t>SEAGES28</t>
-  </si>
-  <si>
-    <t>DJFSCGR8</t>
+    <t>SLAQLOB8</t>
+  </si>
+  <si>
+    <t>SPADPAD9</t>
+  </si>
+  <si>
+    <t>SALII_D8</t>
+  </si>
+  <si>
+    <t>DELMELM5</t>
+  </si>
+  <si>
+    <t>DELMMAR5</t>
+  </si>
+  <si>
+    <t>DWINRVR8</t>
+  </si>
+  <si>
+    <t>SBENS_M8</t>
+  </si>
+  <si>
+    <t>SWHTWOL8</t>
+  </si>
+  <si>
+    <t>DYKNWIN8</t>
+  </si>
+  <si>
+    <t>DLYTFPP5</t>
+  </si>
+  <si>
+    <t>BALLINGE-HUMBLTAP 69KV BALLIN_HUMBLT1_1</t>
+  </si>
+  <si>
+    <t>CUERO-THOMASTN 138KV CUELCA_THOMAS1_1</t>
+  </si>
+  <si>
+    <t>HENDRICK-ABNTHWST 138KV ABNTHW_HENDRI1_1</t>
+  </si>
+  <si>
+    <t>CADDOTN-APACHE 138KV G138_4B_1</t>
+  </si>
+  <si>
+    <t>EMSES-MRSDO 138KV 6265__A</t>
+  </si>
+  <si>
+    <t>STER-STCO 69KV STCO_STER1_1</t>
+  </si>
+  <si>
+    <t>LWVJS-LKPNT 138KV 590__B</t>
+  </si>
+  <si>
+    <t>N_SHARPE-CELANEBI 138KV CELANE_N_SHAR1_1</t>
+  </si>
+  <si>
+    <t>WOODWRD2-RIOPECOS 138KV RIOPEC_WOODW21_1</t>
+  </si>
+  <si>
+    <t>FRIEND_R-OZNC 69KV FDR_OZNC_1</t>
+  </si>
+  <si>
+    <t>SCRCV-KNAPP 138KV 6437__F</t>
+  </si>
+  <si>
+    <t>HWRDLN-MCNEIL 138KV CKT_972_1</t>
+  </si>
+  <si>
+    <t>FALCNSW-FALCON 138KV FALCON_FALCNS1_1</t>
+  </si>
+  <si>
+    <t>VICTORIA-V_DUPSW 138KV VICTOR_V_DUPS1_1</t>
+  </si>
+  <si>
+    <t>RIOHONDO-MV_BURNS 138KV BURNS_RIOHONDO_1</t>
   </si>
   <si>
     <t>ASHERTON-CATARINA 138KV ASHERT_CATARI1_1</t>
   </si>
   <si>
+    <t>I_DUPP1-I_DUPSW 138KV I_DUPP_I_DUPS2_1</t>
+  </si>
+  <si>
+    <t>VICTORIA-WARBURTN 138KV VICTO_WARBU_1A_1</t>
+  </si>
+  <si>
+    <t>NLARSW-PILONCIL 138KV NLARSW_PILONC1_1</t>
+  </si>
+  <si>
+    <t>HUMBLTAP-NOVICTAP 69KV HUMBLT_NOVICT1_1</t>
+  </si>
+  <si>
+    <t>SANA-COLJ 69KV COLJ_SANA1_1</t>
+  </si>
+  <si>
+    <t>NCSTP-LFKSW 138KV 1350__E</t>
+  </si>
+  <si>
+    <t>JATN-CLAT 69KV CLAT_JATN1_1</t>
+  </si>
+  <si>
+    <t>STP-JCK 345KV JCKSTP18_A</t>
+  </si>
+  <si>
+    <t>RINCON-WHITE_PT 138KV RINCON_WHITE_2_1</t>
+  </si>
+  <si>
+    <t>GILLES-FRPHILLT 69KV FRPHIL_GILLES1_1</t>
+  </si>
+  <si>
+    <t>BIGLAKE-BARNHRT 69KV BARNHR_BIGLAK1_1</t>
+  </si>
+  <si>
+    <t>NOTSW-CHEYT 138KV 6101__A</t>
+  </si>
+  <si>
+    <t>CIBOLO-SCHERT 138KV 293T304_1</t>
+  </si>
+  <si>
+    <t>ENWSW-ENSSO 138KV 941__C</t>
+  </si>
+  <si>
+    <t>FORSW-DKCTP 138KV 1120__B</t>
+  </si>
+  <si>
+    <t>FALCNSW-FALCON 138KV FALCON_FALCNS2_1</t>
+  </si>
+  <si>
+    <t>CELANEBI-N_SHARPE 138.10001KV CELANE_N_SHAR1_1</t>
+  </si>
+  <si>
+    <t>GNTSW-SPRTP 138KV 6345__B</t>
+  </si>
+  <si>
+    <t>ESCONDID-EAGLE_PS 138KV EAGLEP_ESCOND1_1</t>
+  </si>
+  <si>
+    <t>RIOPECOS-WOODWRD2 138KV RIOPEC_WOODW21_1</t>
+  </si>
+  <si>
+    <t>TREADWEL-SAPOWER 138KV SAPOWE_TREADW1_1</t>
+  </si>
+  <si>
+    <t>PRS-PR 69KV PR_PRS33_A</t>
+  </si>
+  <si>
+    <t>SPUR-ASPM 138KV ASPM_SPUR1_1</t>
+  </si>
+  <si>
+    <t>BOSQUESW-RGH 138KV 1030__B</t>
+  </si>
+  <si>
+    <t>VICTORIA-LOLITA 138KV LOLITA_VICTOR1_1</t>
+  </si>
+  <si>
+    <t>SAGC-CARLBDTP 69KV CARLBD_SAGC1_1</t>
+  </si>
+  <si>
+    <t>TREADWEL-YELWJCKT 138KV TREADW_YELWJC1_1</t>
+  </si>
+  <si>
+    <t>ALVIN-MAINLAND 138KV 138_ALV_MNL_1</t>
+  </si>
+  <si>
+    <t>WIRTZ-STARCK 138KV 654T654_1</t>
+  </si>
+  <si>
+    <t>SONR-CTHR 138KV CTHR_SONR1_1</t>
+  </si>
+  <si>
+    <t>STP-DOW 345KV DOWSTP27_A</t>
+  </si>
+  <si>
+    <t>BISON-STRS 69KV BISON_STRS1_1</t>
+  </si>
+  <si>
     <t>WIRTZ-FLATRO 138KV 38T365_1</t>
   </si>
   <si>
-    <t>HUMBLTAP-NOVICTAP 69KV HUMBLT_NOVICT1_1</t>
+    <t>SBYSW-PCKTP 69KV 6820__C</t>
+  </si>
+  <si>
+    <t>LWSVW-LWVTI 138KV 588_A_1</t>
+  </si>
+  <si>
+    <t>FRSTP-DRMSW 138KV 6470__C</t>
+  </si>
+  <si>
+    <t>COMFOR-CICO 138KV 74T148_1</t>
+  </si>
+  <si>
+    <t>AMISTD-PICACHO 138KV AMIHY_HAMRD_1B_1</t>
+  </si>
+  <si>
+    <t>WHIT_RVR-TULECNYN 345KV TULEC_WHIT_R2_1</t>
   </si>
   <si>
     <t>GRDSW-NACPW 138KV NAC_L1_1</t>
   </si>
   <si>
-    <t>GILLES-FRPHILLT 69KV FRPHIL_GILLES1_1</t>
-  </si>
-  <si>
-    <t>ENSSW-TRU 138KV 921__D</t>
-  </si>
-  <si>
-    <t>RINCON-WHITE_PT 138KV RINCON_WHITE_2_1</t>
-  </si>
-  <si>
     <t>DHIDE-NOTSW 138KV 6100__F</t>
   </si>
   <si>
-    <t>FSHSW-WFALS 138KV 6558__B</t>
-  </si>
-  <si>
-    <t>SBYSW-PCKTP 69KV 6820__C</t>
+    <t>BLESSING-LOLITA 138KV BLESSI_LOLITA1_1</t>
+  </si>
+  <si>
+    <t>LOLITA-FORMOSA 138KV FORMOS_LOLITA1_1</t>
+  </si>
+  <si>
+    <t>WOODWRD2-16TH_ST 138KV 16TH_WRD2_1</t>
+  </si>
+  <si>
+    <t>SSPNG-CLKPT 138KV 870__G</t>
+  </si>
+  <si>
+    <t>HAMILTON-MAVERICK 138KV HAMILT_MAVERI1_1</t>
+  </si>
+  <si>
+    <t>COLJ-GLSB 69KV COLJ_GLSB1_1</t>
+  </si>
+  <si>
+    <t>FRPHILLT-MASN 69KV FRPHIL_MASN1_1</t>
   </si>
   <si>
     <t>COLETO CREEK-VICTORIA 138KV COLETO_VICTOR2</t>
   </si>
   <si>
+    <t>DCTM-OKLA 345KV DCT_OKL_1</t>
+  </si>
+  <si>
+    <t>LINTERNA-SOLSTICE 138KV LINTER_SOLSTI1_1</t>
+  </si>
+  <si>
+    <t>BIGWELS-BRUNDGS 69KV BIG_BRUN_1</t>
+  </si>
+  <si>
+    <t>ECMORN-PARKWA 138KV 581T581_1</t>
+  </si>
+  <si>
+    <t>PECAN_BY-ESTES 138KV ESTES_PECAN_1_1</t>
+  </si>
+  <si>
+    <t>ACSSW-AMTBT 138KV 6100__G</t>
+  </si>
+  <si>
+    <t>FTST-SOLSTICE 138KV FTST_SOLSTI1_1</t>
+  </si>
+  <si>
+    <t>JFS-SC 138KV JFSSC_06_A</t>
+  </si>
+  <si>
     <t>VICTORIA-MAGRUDER 138KV MAGRUD_VICTOR2_1</t>
   </si>
   <si>
-    <t>DE-CA 138.10001KV CA_DE_96_A</t>
-  </si>
-  <si>
-    <t>RIOPECOS-WOODWRD2 138KV RIOPEC_WOODW21_1</t>
-  </si>
-  <si>
-    <t>ALVIN-MAINLAND 138KV 138_ALV_MNL_1</t>
-  </si>
-  <si>
-    <t>REDCREEK-BENFICKL 138KV BENFIC_REDCRE1_1</t>
-  </si>
-  <si>
-    <t>MAXWELL-HAMILTON 138KV HAMILT_MAXWEL1_1</t>
-  </si>
-  <si>
-    <t>ESCONDID-EAGLE_PS 138KV EAGLEP_ESCOND1_1</t>
-  </si>
-  <si>
-    <t>JFS-SC 138KV JFSSC_06_A</t>
+    <t>WEAVERRD-GREENLK 69KV GREENL_WEAVER1_1</t>
+  </si>
+  <si>
+    <t>MCCAMPBE-I_DUPSW 138KV I_DUPS_MCCAMP2_1</t>
+  </si>
+  <si>
+    <t>WHITE_PT-HECKER 138KV HECKER_WHITE_2_1</t>
+  </si>
+  <si>
+    <t>FALFUR-PREMONT 69KV FALFUR_PREMON1_1</t>
+  </si>
+  <si>
+    <t>ROARINGS-AFTON 69KV AFTON_ROARIN1_1</t>
+  </si>
+  <si>
+    <t>MARION-HILLCTRY 345KV HILL_MAR_2_1</t>
+  </si>
+  <si>
+    <t>S_MISSIN-RAILROAD 138KV BENTS_FRTER_1C_1</t>
+  </si>
+  <si>
+    <t>LKPNT-CRLNW 138KV 591__A</t>
+  </si>
+  <si>
+    <t>FAYETT-WINCHE 138KV 176T165_1</t>
   </si>
 </sst>
 </file>
@@ -671,7 +1697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,19 +1731,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>274</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -728,19 +1754,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -751,19 +1777,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -774,19 +1800,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -797,19 +1823,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -820,19 +1846,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -843,19 +1869,19 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -863,22 +1889,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>277</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -889,19 +1915,19 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>278</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -909,22 +1935,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -935,19 +1961,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -955,22 +1981,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -981,19 +2007,19 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1001,22 +2027,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1027,19 +2053,19 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1047,22 +2073,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1073,19 +2099,19 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1093,22 +2119,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1119,19 +2145,19 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1139,22 +2165,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1165,19 +2191,19 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1185,22 +2211,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1211,19 +2237,19 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1231,22 +2257,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1257,19 +2283,19 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1277,22 +2303,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1300,22 +2326,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1323,22 +2349,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1346,22 +2372,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1369,22 +2395,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1392,22 +2418,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1418,19 +2444,19 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1438,22 +2464,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1464,19 +2490,19 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1484,22 +2510,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1510,19 +2536,5792 @@
         <v>24</v>
       </c>
       <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>273</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
+        <v>273</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>274</v>
+      </c>
+      <c r="G46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>274</v>
+      </c>
+      <c r="G47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>290</v>
+      </c>
+      <c r="G48" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" t="s">
+        <v>273</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>290</v>
+      </c>
+      <c r="G49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>274</v>
+      </c>
+      <c r="G50" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>274</v>
+      </c>
+      <c r="G51" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>295</v>
+      </c>
+      <c r="G55" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>296</v>
+      </c>
+      <c r="G56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" t="s">
+        <v>273</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" t="s">
+        <v>273</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" t="s">
+        <v>273</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>297</v>
+      </c>
+      <c r="G59" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" t="s">
+        <v>273</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G61" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>273</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>299</v>
+      </c>
+      <c r="G62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" t="s">
+        <v>273</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>299</v>
+      </c>
+      <c r="G63" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" t="s">
+        <v>273</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>300</v>
+      </c>
+      <c r="G64" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G66" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" t="s">
+        <v>273</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>301</v>
+      </c>
+      <c r="G67" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" t="s">
+        <v>273</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>302</v>
+      </c>
+      <c r="G68" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>302</v>
+      </c>
+      <c r="G69" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>303</v>
+      </c>
+      <c r="G70" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>303</v>
+      </c>
+      <c r="G71" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" t="s">
+        <v>273</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>304</v>
+      </c>
+      <c r="G72" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" t="s">
+        <v>273</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>304</v>
+      </c>
+      <c r="G73" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>305</v>
+      </c>
+      <c r="G74" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" t="s">
+        <v>273</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>305</v>
+      </c>
+      <c r="G75" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>306</v>
+      </c>
+      <c r="G76" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" t="s">
+        <v>273</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>306</v>
+      </c>
+      <c r="G77" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>273</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>300</v>
+      </c>
+      <c r="G78" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
+        <v>273</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>300</v>
+      </c>
+      <c r="G79" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>292</v>
+      </c>
+      <c r="G80" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" t="s">
+        <v>273</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>292</v>
+      </c>
+      <c r="G81" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>307</v>
+      </c>
+      <c r="G82" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" t="s">
+        <v>273</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>307</v>
+      </c>
+      <c r="G83" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>308</v>
+      </c>
+      <c r="G84" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>308</v>
+      </c>
+      <c r="G85" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>126</v>
+      </c>
+      <c r="D86" t="s">
+        <v>273</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>309</v>
+      </c>
+      <c r="G86" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" t="s">
+        <v>273</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>309</v>
+      </c>
+      <c r="G87" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" t="s">
+        <v>273</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>310</v>
+      </c>
+      <c r="G88" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>310</v>
+      </c>
+      <c r="G89" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>277</v>
+      </c>
+      <c r="G90" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>277</v>
+      </c>
+      <c r="G91" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" t="s">
+        <v>273</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>289</v>
+      </c>
+      <c r="G92" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" t="s">
+        <v>273</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>311</v>
+      </c>
+      <c r="G93" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>311</v>
+      </c>
+      <c r="G94" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>312</v>
+      </c>
+      <c r="G95" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>312</v>
+      </c>
+      <c r="G96" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>313</v>
+      </c>
+      <c r="G97" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>22</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>186</v>
+      </c>
+      <c r="D98" t="s">
+        <v>273</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>313</v>
+      </c>
+      <c r="G98" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>23</v>
+      </c>
+      <c r="B99" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" t="s">
+        <v>273</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>314</v>
+      </c>
+      <c r="G99" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>24</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" t="s">
+        <v>273</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>314</v>
+      </c>
+      <c r="G100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101" t="s">
+        <v>273</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>315</v>
+      </c>
+      <c r="G101" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>26</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" t="s">
+        <v>273</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>315</v>
+      </c>
+      <c r="G102" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>27</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" t="s">
+        <v>191</v>
+      </c>
+      <c r="D103" t="s">
+        <v>273</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>316</v>
+      </c>
+      <c r="G103" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" t="s">
+        <v>192</v>
+      </c>
+      <c r="D104" t="s">
+        <v>273</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>316</v>
+      </c>
+      <c r="G104" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>29</v>
+      </c>
+      <c r="B105" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" t="s">
+        <v>193</v>
+      </c>
+      <c r="D105" t="s">
+        <v>273</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>317</v>
+      </c>
+      <c r="G105" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" t="s">
+        <v>273</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>317</v>
+      </c>
+      <c r="G106" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>31</v>
+      </c>
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" t="s">
+        <v>273</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>318</v>
+      </c>
+      <c r="G107" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>32</v>
+      </c>
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" t="s">
+        <v>196</v>
+      </c>
+      <c r="D108" t="s">
+        <v>273</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>318</v>
+      </c>
+      <c r="G108" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>33</v>
+      </c>
+      <c r="B109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" t="s">
+        <v>197</v>
+      </c>
+      <c r="D109" t="s">
+        <v>273</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>319</v>
+      </c>
+      <c r="G109" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>34</v>
+      </c>
+      <c r="B110" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" t="s">
+        <v>273</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>319</v>
+      </c>
+      <c r="G110" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" t="s">
+        <v>273</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>296</v>
+      </c>
+      <c r="G111" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" t="s">
+        <v>273</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>296</v>
+      </c>
+      <c r="G112" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" t="s">
+        <v>200</v>
+      </c>
+      <c r="D113" t="s">
+        <v>273</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>320</v>
+      </c>
+      <c r="G113" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>58</v>
+      </c>
+      <c r="C114" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114" t="s">
+        <v>273</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>320</v>
+      </c>
+      <c r="G114" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115" t="s">
+        <v>273</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>321</v>
+      </c>
+      <c r="G115" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" t="s">
+        <v>203</v>
+      </c>
+      <c r="D116" t="s">
+        <v>273</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>321</v>
+      </c>
+      <c r="G116" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
         <v>60</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C117" t="s">
+        <v>204</v>
+      </c>
+      <c r="D117" t="s">
+        <v>273</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>279</v>
+      </c>
+      <c r="G117" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" t="s">
+        <v>273</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>279</v>
+      </c>
+      <c r="G118" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
         <v>61</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="C119" t="s">
+        <v>205</v>
+      </c>
+      <c r="D119" t="s">
+        <v>273</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>280</v>
+      </c>
+      <c r="G119" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" t="s">
+        <v>273</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>280</v>
+      </c>
+      <c r="G120" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>150</v>
+      </c>
+      <c r="D121" t="s">
+        <v>273</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>294</v>
+      </c>
+      <c r="G121" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" t="s">
+        <v>151</v>
+      </c>
+      <c r="D122" t="s">
+        <v>273</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>294</v>
+      </c>
+      <c r="G122" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>62</v>
+      </c>
+      <c r="C123" t="s">
+        <v>206</v>
+      </c>
+      <c r="D123" t="s">
+        <v>273</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
+        <v>289</v>
+      </c>
+      <c r="G123" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>13</v>
+      </c>
+      <c r="B124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124" t="s">
+        <v>179</v>
+      </c>
+      <c r="D124" t="s">
+        <v>273</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>310</v>
+      </c>
+      <c r="G124" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>46</v>
+      </c>
+      <c r="C125" t="s">
+        <v>180</v>
+      </c>
+      <c r="D125" t="s">
+        <v>273</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>310</v>
+      </c>
+      <c r="G125" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" t="s">
+        <v>207</v>
+      </c>
+      <c r="D126" t="s">
+        <v>273</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>322</v>
+      </c>
+      <c r="G126" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" t="s">
+        <v>273</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>322</v>
+      </c>
+      <c r="G127" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" t="s">
+        <v>209</v>
+      </c>
+      <c r="D128" t="s">
+        <v>273</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>289</v>
+      </c>
+      <c r="G128" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" t="s">
+        <v>210</v>
+      </c>
+      <c r="D129" t="s">
+        <v>273</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>323</v>
+      </c>
+      <c r="G129" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" t="s">
+        <v>211</v>
+      </c>
+      <c r="D130" t="s">
+        <v>273</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>323</v>
+      </c>
+      <c r="G130" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" t="s">
+        <v>212</v>
+      </c>
+      <c r="D131" t="s">
+        <v>273</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>324</v>
+      </c>
+      <c r="G131" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132" t="s">
+        <v>273</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>324</v>
+      </c>
+      <c r="G132" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>22</v>
+      </c>
+      <c r="B133" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" t="s">
+        <v>273</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>302</v>
+      </c>
+      <c r="G133" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" t="s">
+        <v>165</v>
+      </c>
+      <c r="D134" t="s">
+        <v>273</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>302</v>
+      </c>
+      <c r="G134" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>24</v>
+      </c>
+      <c r="B135" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" t="s">
+        <v>215</v>
+      </c>
+      <c r="D135" t="s">
+        <v>273</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>325</v>
+      </c>
+      <c r="G135" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>25</v>
+      </c>
+      <c r="B136" t="s">
+        <v>68</v>
+      </c>
+      <c r="C136" t="s">
+        <v>216</v>
+      </c>
+      <c r="D136" t="s">
+        <v>273</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>325</v>
+      </c>
+      <c r="G136" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>26</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" t="s">
+        <v>133</v>
+      </c>
+      <c r="D137" t="s">
+        <v>273</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>286</v>
+      </c>
+      <c r="G137" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>27</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>134</v>
+      </c>
+      <c r="D138" t="s">
+        <v>273</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>286</v>
+      </c>
+      <c r="G138" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>28</v>
+      </c>
+      <c r="B139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" t="s">
+        <v>217</v>
+      </c>
+      <c r="D139" t="s">
+        <v>273</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>326</v>
+      </c>
+      <c r="G139" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>29</v>
+      </c>
+      <c r="B140" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" t="s">
+        <v>218</v>
+      </c>
+      <c r="D140" t="s">
+        <v>273</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>326</v>
+      </c>
+      <c r="G140" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>30</v>
+      </c>
+      <c r="B141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" t="s">
+        <v>176</v>
+      </c>
+      <c r="D141" t="s">
+        <v>273</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>308</v>
+      </c>
+      <c r="G141" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>31</v>
+      </c>
+      <c r="B142" t="s">
+        <v>44</v>
+      </c>
+      <c r="C142" t="s">
+        <v>177</v>
+      </c>
+      <c r="D142" t="s">
+        <v>273</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>308</v>
+      </c>
+      <c r="G142" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>32</v>
+      </c>
+      <c r="B143" t="s">
+        <v>70</v>
+      </c>
+      <c r="C143" t="s">
+        <v>124</v>
+      </c>
+      <c r="D143" t="s">
+        <v>273</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>327</v>
+      </c>
+      <c r="G143" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>33</v>
+      </c>
+      <c r="B144" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" t="s">
+        <v>219</v>
+      </c>
+      <c r="D144" t="s">
+        <v>273</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>327</v>
+      </c>
+      <c r="G144" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>34</v>
+      </c>
+      <c r="B145" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" t="s">
+        <v>193</v>
+      </c>
+      <c r="D145" t="s">
+        <v>273</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>317</v>
+      </c>
+      <c r="G145" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>35</v>
+      </c>
+      <c r="B146" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" t="s">
+        <v>194</v>
+      </c>
+      <c r="D146" t="s">
+        <v>273</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>317</v>
+      </c>
+      <c r="G146" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>71</v>
+      </c>
+      <c r="C147" t="s">
+        <v>220</v>
+      </c>
+      <c r="D147" t="s">
+        <v>273</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>328</v>
+      </c>
+      <c r="G147" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" t="s">
+        <v>221</v>
+      </c>
+      <c r="D148" t="s">
+        <v>273</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>329</v>
+      </c>
+      <c r="G148" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" t="s">
+        <v>222</v>
+      </c>
+      <c r="D149" t="s">
+        <v>273</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>329</v>
+      </c>
+      <c r="G149" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
+        <v>62</v>
+      </c>
+      <c r="C150" t="s">
+        <v>206</v>
+      </c>
+      <c r="D150" t="s">
+        <v>273</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>330</v>
+      </c>
+      <c r="G150" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>73</v>
+      </c>
+      <c r="C151" t="s">
+        <v>223</v>
+      </c>
+      <c r="D151" t="s">
+        <v>273</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>316</v>
+      </c>
+      <c r="G151" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>73</v>
+      </c>
+      <c r="C152" t="s">
+        <v>192</v>
+      </c>
+      <c r="D152" t="s">
+        <v>273</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>316</v>
+      </c>
+      <c r="G152" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" t="s">
+        <v>224</v>
+      </c>
+      <c r="D153" t="s">
+        <v>273</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>274</v>
+      </c>
+      <c r="G153" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>74</v>
+      </c>
+      <c r="C154" t="s">
+        <v>111</v>
+      </c>
+      <c r="D154" t="s">
+        <v>273</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>274</v>
+      </c>
+      <c r="G154" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" t="s">
+        <v>161</v>
+      </c>
+      <c r="D155" t="s">
+        <v>273</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>300</v>
+      </c>
+      <c r="G155" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
+        <v>162</v>
+      </c>
+      <c r="D156" t="s">
+        <v>273</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>300</v>
+      </c>
+      <c r="G156" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>75</v>
+      </c>
+      <c r="C157" t="s">
+        <v>225</v>
+      </c>
+      <c r="D157" t="s">
+        <v>273</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>298</v>
+      </c>
+      <c r="G157" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>75</v>
+      </c>
+      <c r="C158" t="s">
+        <v>159</v>
+      </c>
+      <c r="D158" t="s">
+        <v>273</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>298</v>
+      </c>
+      <c r="G158" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>76</v>
+      </c>
+      <c r="C159" t="s">
+        <v>126</v>
+      </c>
+      <c r="D159" t="s">
+        <v>273</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>328</v>
+      </c>
+      <c r="G159" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>13</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>110</v>
+      </c>
+      <c r="D160" t="s">
+        <v>273</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>274</v>
+      </c>
+      <c r="G160" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>111</v>
+      </c>
+      <c r="D161" t="s">
+        <v>273</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>274</v>
+      </c>
+      <c r="G161" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>15</v>
+      </c>
+      <c r="B162" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" t="s">
+        <v>226</v>
+      </c>
+      <c r="D162" t="s">
+        <v>273</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>331</v>
+      </c>
+      <c r="G162" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>16</v>
+      </c>
+      <c r="B163" t="s">
+        <v>77</v>
+      </c>
+      <c r="C163" t="s">
+        <v>227</v>
+      </c>
+      <c r="D163" t="s">
+        <v>273</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>331</v>
+      </c>
+      <c r="G163" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>17</v>
+      </c>
+      <c r="B164" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" t="s">
+        <v>158</v>
+      </c>
+      <c r="D164" t="s">
+        <v>273</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>298</v>
+      </c>
+      <c r="G164" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>18</v>
+      </c>
+      <c r="B165" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" t="s">
+        <v>159</v>
+      </c>
+      <c r="D165" t="s">
+        <v>273</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>298</v>
+      </c>
+      <c r="G165" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
+        <v>78</v>
+      </c>
+      <c r="C166" t="s">
+        <v>137</v>
+      </c>
+      <c r="D166" t="s">
+        <v>273</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>332</v>
+      </c>
+      <c r="G166" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>20</v>
+      </c>
+      <c r="B167" t="s">
+        <v>78</v>
+      </c>
+      <c r="C167" t="s">
+        <v>228</v>
+      </c>
+      <c r="D167" t="s">
+        <v>273</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>332</v>
+      </c>
+      <c r="G167" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>79</v>
+      </c>
+      <c r="C168" t="s">
+        <v>229</v>
+      </c>
+      <c r="D168" t="s">
+        <v>273</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>333</v>
+      </c>
+      <c r="G168" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>22</v>
+      </c>
+      <c r="B169" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" t="s">
+        <v>230</v>
+      </c>
+      <c r="D169" t="s">
+        <v>273</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>333</v>
+      </c>
+      <c r="G169" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>23</v>
+      </c>
+      <c r="B170" t="s">
         <v>80</v>
       </c>
-      <c r="G37" t="s">
+      <c r="C170" t="s">
+        <v>231</v>
+      </c>
+      <c r="D170" t="s">
+        <v>273</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
+        <v>334</v>
+      </c>
+      <c r="G170" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>24</v>
+      </c>
+      <c r="B171" t="s">
+        <v>80</v>
+      </c>
+      <c r="C171" t="s">
+        <v>232</v>
+      </c>
+      <c r="D171" t="s">
+        <v>273</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>334</v>
+      </c>
+      <c r="G171" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>25</v>
+      </c>
+      <c r="B172" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" t="s">
+        <v>197</v>
+      </c>
+      <c r="D172" t="s">
+        <v>273</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>319</v>
+      </c>
+      <c r="G172" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>26</v>
+      </c>
+      <c r="B173" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" t="s">
+        <v>198</v>
+      </c>
+      <c r="D173" t="s">
+        <v>273</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>319</v>
+      </c>
+      <c r="G173" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>27</v>
+      </c>
+      <c r="B174" t="s">
+        <v>81</v>
+      </c>
+      <c r="C174" t="s">
+        <v>223</v>
+      </c>
+      <c r="D174" t="s">
+        <v>273</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>335</v>
+      </c>
+      <c r="G174" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>28</v>
+      </c>
+      <c r="B175" t="s">
+        <v>81</v>
+      </c>
+      <c r="C175" t="s">
+        <v>233</v>
+      </c>
+      <c r="D175" t="s">
+        <v>273</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>335</v>
+      </c>
+      <c r="G175" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>29</v>
+      </c>
+      <c r="B176" t="s">
+        <v>67</v>
+      </c>
+      <c r="C176" t="s">
+        <v>214</v>
+      </c>
+      <c r="D176" t="s">
+        <v>273</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>302</v>
+      </c>
+      <c r="G176" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>30</v>
+      </c>
+      <c r="B177" t="s">
+        <v>67</v>
+      </c>
+      <c r="C177" t="s">
+        <v>165</v>
+      </c>
+      <c r="D177" t="s">
+        <v>273</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>302</v>
+      </c>
+      <c r="G177" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>81</v>
+      </c>
+      <c r="C178" t="s">
+        <v>223</v>
+      </c>
+      <c r="D178" t="s">
+        <v>273</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>335</v>
+      </c>
+      <c r="G178" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>1</v>
+      </c>
+      <c r="B179" t="s">
+        <v>81</v>
+      </c>
+      <c r="C179" t="s">
+        <v>233</v>
+      </c>
+      <c r="D179" t="s">
+        <v>273</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
+        <v>335</v>
+      </c>
+      <c r="G179" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>2</v>
+      </c>
+      <c r="B180" t="s">
+        <v>82</v>
+      </c>
+      <c r="C180" t="s">
+        <v>234</v>
+      </c>
+      <c r="D180" t="s">
+        <v>273</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
+        <v>336</v>
+      </c>
+      <c r="G180" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>82</v>
+      </c>
+      <c r="C181" t="s">
+        <v>235</v>
+      </c>
+      <c r="D181" t="s">
+        <v>273</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>336</v>
+      </c>
+      <c r="G181" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>83</v>
+      </c>
+      <c r="C182" t="s">
+        <v>236</v>
+      </c>
+      <c r="D182" t="s">
+        <v>273</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>337</v>
+      </c>
+      <c r="G182" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>83</v>
+      </c>
+      <c r="C183" t="s">
+        <v>237</v>
+      </c>
+      <c r="D183" t="s">
+        <v>273</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>337</v>
+      </c>
+      <c r="G183" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>84</v>
+      </c>
+      <c r="C184" t="s">
+        <v>137</v>
+      </c>
+      <c r="D184" t="s">
+        <v>273</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>338</v>
+      </c>
+      <c r="G184" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>84</v>
+      </c>
+      <c r="C185" t="s">
+        <v>238</v>
+      </c>
+      <c r="D185" t="s">
+        <v>273</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>338</v>
+      </c>
+      <c r="G185" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>112</v>
+      </c>
+      <c r="D186" t="s">
+        <v>273</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>331</v>
+      </c>
+      <c r="G186" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>9</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>227</v>
+      </c>
+      <c r="D187" t="s">
+        <v>273</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>331</v>
+      </c>
+      <c r="G187" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>44</v>
+      </c>
+      <c r="C188" t="s">
+        <v>176</v>
+      </c>
+      <c r="D188" t="s">
+        <v>273</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>308</v>
+      </c>
+      <c r="G188" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>11</v>
+      </c>
+      <c r="B189" t="s">
+        <v>44</v>
+      </c>
+      <c r="C189" t="s">
+        <v>177</v>
+      </c>
+      <c r="D189" t="s">
+        <v>273</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>308</v>
+      </c>
+      <c r="G189" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>12</v>
+      </c>
+      <c r="B190" t="s">
+        <v>85</v>
+      </c>
+      <c r="C190" t="s">
+        <v>239</v>
+      </c>
+      <c r="D190" t="s">
+        <v>273</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>339</v>
+      </c>
+      <c r="G190" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>85</v>
+      </c>
+      <c r="C191" t="s">
+        <v>240</v>
+      </c>
+      <c r="D191" t="s">
+        <v>273</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>339</v>
+      </c>
+      <c r="G191" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>14</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>122</v>
+      </c>
+      <c r="D192" t="s">
+        <v>273</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>280</v>
+      </c>
+      <c r="G192" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>15</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>123</v>
+      </c>
+      <c r="D193" t="s">
+        <v>273</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>280</v>
+      </c>
+      <c r="G193" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>16</v>
+      </c>
+      <c r="B194" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" t="s">
+        <v>172</v>
+      </c>
+      <c r="D194" t="s">
+        <v>273</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>306</v>
+      </c>
+      <c r="G194" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>17</v>
+      </c>
+      <c r="B195" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" t="s">
+        <v>173</v>
+      </c>
+      <c r="D195" t="s">
+        <v>273</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195" t="s">
+        <v>306</v>
+      </c>
+      <c r="G195" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196" t="s">
+        <v>148</v>
+      </c>
+      <c r="D196" t="s">
+        <v>273</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>274</v>
+      </c>
+      <c r="G196" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197" t="s">
+        <v>111</v>
+      </c>
+      <c r="D197" t="s">
+        <v>273</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>274</v>
+      </c>
+      <c r="G197" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s">
+        <v>86</v>
+      </c>
+      <c r="C198" t="s">
+        <v>241</v>
+      </c>
+      <c r="D198" t="s">
+        <v>273</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" t="s">
+        <v>302</v>
+      </c>
+      <c r="G198" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>86</v>
+      </c>
+      <c r="C199" t="s">
+        <v>165</v>
+      </c>
+      <c r="D199" t="s">
+        <v>273</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>302</v>
+      </c>
+      <c r="G199" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>22</v>
+      </c>
+      <c r="B200" t="s">
+        <v>87</v>
+      </c>
+      <c r="C200" t="s">
+        <v>179</v>
+      </c>
+      <c r="D200" t="s">
+        <v>273</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" t="s">
+        <v>340</v>
+      </c>
+      <c r="G200" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
+        <v>87</v>
+      </c>
+      <c r="C201" t="s">
+        <v>242</v>
+      </c>
+      <c r="D201" t="s">
+        <v>273</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201" t="s">
+        <v>340</v>
+      </c>
+      <c r="G201" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>24</v>
+      </c>
+      <c r="B202" t="s">
+        <v>88</v>
+      </c>
+      <c r="C202" t="s">
+        <v>243</v>
+      </c>
+      <c r="D202" t="s">
+        <v>273</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>341</v>
+      </c>
+      <c r="G202" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>25</v>
+      </c>
+      <c r="B203" t="s">
+        <v>88</v>
+      </c>
+      <c r="C203" t="s">
+        <v>244</v>
+      </c>
+      <c r="D203" t="s">
+        <v>273</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" t="s">
+        <v>341</v>
+      </c>
+      <c r="G203" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>26</v>
+      </c>
+      <c r="B204" t="s">
+        <v>89</v>
+      </c>
+      <c r="C204" t="s">
+        <v>245</v>
+      </c>
+      <c r="D204" t="s">
+        <v>273</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204" t="s">
+        <v>342</v>
+      </c>
+      <c r="G204" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>27</v>
+      </c>
+      <c r="B205" t="s">
+        <v>89</v>
+      </c>
+      <c r="C205" t="s">
+        <v>246</v>
+      </c>
+      <c r="D205" t="s">
+        <v>273</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" t="s">
+        <v>342</v>
+      </c>
+      <c r="G205" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>28</v>
+      </c>
+      <c r="B206" t="s">
+        <v>49</v>
+      </c>
+      <c r="C206" t="s">
+        <v>184</v>
+      </c>
+      <c r="D206" t="s">
+        <v>273</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" t="s">
+        <v>312</v>
+      </c>
+      <c r="G206" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>29</v>
+      </c>
+      <c r="B207" t="s">
+        <v>49</v>
+      </c>
+      <c r="C207" t="s">
+        <v>185</v>
+      </c>
+      <c r="D207" t="s">
+        <v>273</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" t="s">
+        <v>312</v>
+      </c>
+      <c r="G207" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>30</v>
+      </c>
+      <c r="B208" t="s">
+        <v>38</v>
+      </c>
+      <c r="C208" t="s">
+        <v>164</v>
+      </c>
+      <c r="D208" t="s">
+        <v>273</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208" t="s">
+        <v>302</v>
+      </c>
+      <c r="G208" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>31</v>
+      </c>
+      <c r="B209" t="s">
+        <v>38</v>
+      </c>
+      <c r="C209" t="s">
+        <v>165</v>
+      </c>
+      <c r="D209" t="s">
+        <v>273</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209" t="s">
+        <v>302</v>
+      </c>
+      <c r="G209" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>32</v>
+      </c>
+      <c r="B210" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" t="s">
+        <v>112</v>
+      </c>
+      <c r="D210" t="s">
+        <v>273</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210" t="s">
+        <v>285</v>
+      </c>
+      <c r="G210" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>33</v>
+      </c>
+      <c r="B211" t="s">
+        <v>17</v>
+      </c>
+      <c r="C211" t="s">
+        <v>132</v>
+      </c>
+      <c r="D211" t="s">
+        <v>273</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211" t="s">
+        <v>285</v>
+      </c>
+      <c r="G211" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>34</v>
+      </c>
+      <c r="B212" t="s">
+        <v>36</v>
+      </c>
+      <c r="C212" t="s">
+        <v>161</v>
+      </c>
+      <c r="D212" t="s">
+        <v>273</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212" t="s">
+        <v>300</v>
+      </c>
+      <c r="G212" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>35</v>
+      </c>
+      <c r="B213" t="s">
+        <v>36</v>
+      </c>
+      <c r="C213" t="s">
+        <v>162</v>
+      </c>
+      <c r="D213" t="s">
+        <v>273</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
+        <v>300</v>
+      </c>
+      <c r="G213" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>36</v>
+      </c>
+      <c r="B214" t="s">
+        <v>20</v>
+      </c>
+      <c r="C214" t="s">
+        <v>137</v>
+      </c>
+      <c r="D214" t="s">
+        <v>273</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214" t="s">
+        <v>288</v>
+      </c>
+      <c r="G214" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>37</v>
+      </c>
+      <c r="B215" t="s">
+        <v>20</v>
+      </c>
+      <c r="C215" t="s">
+        <v>138</v>
+      </c>
+      <c r="D215" t="s">
+        <v>273</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
+        <v>288</v>
+      </c>
+      <c r="G215" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>38</v>
+      </c>
+      <c r="B216" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" t="s">
+        <v>130</v>
+      </c>
+      <c r="D216" t="s">
+        <v>273</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" t="s">
+        <v>284</v>
+      </c>
+      <c r="G216" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>39</v>
+      </c>
+      <c r="B217" t="s">
+        <v>16</v>
+      </c>
+      <c r="C217" t="s">
+        <v>131</v>
+      </c>
+      <c r="D217" t="s">
+        <v>273</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217" t="s">
+        <v>284</v>
+      </c>
+      <c r="G217" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>90</v>
+      </c>
+      <c r="C218" t="s">
+        <v>146</v>
+      </c>
+      <c r="D218" t="s">
+        <v>273</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" t="s">
+        <v>343</v>
+      </c>
+      <c r="G218" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>90</v>
+      </c>
+      <c r="C219" t="s">
+        <v>247</v>
+      </c>
+      <c r="D219" t="s">
+        <v>273</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" t="s">
+        <v>343</v>
+      </c>
+      <c r="G219" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
+        <v>91</v>
+      </c>
+      <c r="C220" t="s">
+        <v>212</v>
+      </c>
+      <c r="D220" t="s">
+        <v>273</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220" t="s">
+        <v>289</v>
+      </c>
+      <c r="G220" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>3</v>
+      </c>
+      <c r="B221" t="s">
+        <v>92</v>
+      </c>
+      <c r="C221" t="s">
+        <v>212</v>
+      </c>
+      <c r="D221" t="s">
+        <v>273</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221" t="s">
+        <v>344</v>
+      </c>
+      <c r="G221" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>92</v>
+      </c>
+      <c r="C222" t="s">
+        <v>248</v>
+      </c>
+      <c r="D222" t="s">
+        <v>273</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222" t="s">
+        <v>344</v>
+      </c>
+      <c r="G222" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>93</v>
+      </c>
+      <c r="C223" t="s">
+        <v>139</v>
+      </c>
+      <c r="D223" t="s">
+        <v>273</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223" t="s">
+        <v>345</v>
+      </c>
+      <c r="G223" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>93</v>
+      </c>
+      <c r="C224" t="s">
+        <v>249</v>
+      </c>
+      <c r="D224" t="s">
+        <v>273</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224" t="s">
+        <v>345</v>
+      </c>
+      <c r="G224" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>7</v>
+      </c>
+      <c r="B225" t="s">
+        <v>94</v>
+      </c>
+      <c r="C225" t="s">
+        <v>250</v>
+      </c>
+      <c r="D225" t="s">
+        <v>273</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
+        <v>346</v>
+      </c>
+      <c r="G225" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>8</v>
+      </c>
+      <c r="B226" t="s">
+        <v>94</v>
+      </c>
+      <c r="C226" t="s">
+        <v>251</v>
+      </c>
+      <c r="D226" t="s">
+        <v>273</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226" t="s">
+        <v>346</v>
+      </c>
+      <c r="G226" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
+        <v>27</v>
+      </c>
+      <c r="C227" t="s">
+        <v>149</v>
+      </c>
+      <c r="D227" t="s">
+        <v>273</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" t="s">
+        <v>274</v>
+      </c>
+      <c r="G227" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>27</v>
+      </c>
+      <c r="C228" t="s">
+        <v>111</v>
+      </c>
+      <c r="D228" t="s">
+        <v>273</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" t="s">
+        <v>274</v>
+      </c>
+      <c r="G228" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>11</v>
+      </c>
+      <c r="B229" t="s">
+        <v>81</v>
+      </c>
+      <c r="C229" t="s">
+        <v>223</v>
+      </c>
+      <c r="D229" t="s">
+        <v>273</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" t="s">
+        <v>335</v>
+      </c>
+      <c r="G229" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>12</v>
+      </c>
+      <c r="B230" t="s">
+        <v>81</v>
+      </c>
+      <c r="C230" t="s">
+        <v>233</v>
+      </c>
+      <c r="D230" t="s">
+        <v>273</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" t="s">
+        <v>335</v>
+      </c>
+      <c r="G230" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>13</v>
+      </c>
+      <c r="B231" t="s">
+        <v>95</v>
+      </c>
+      <c r="C231" t="s">
+        <v>252</v>
+      </c>
+      <c r="D231" t="s">
+        <v>273</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231" t="s">
+        <v>326</v>
+      </c>
+      <c r="G231" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>95</v>
+      </c>
+      <c r="C232" t="s">
+        <v>218</v>
+      </c>
+      <c r="D232" t="s">
+        <v>273</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>326</v>
+      </c>
+      <c r="G232" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>15</v>
+      </c>
+      <c r="B233" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233" t="s">
+        <v>181</v>
+      </c>
+      <c r="D233" t="s">
+        <v>273</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" t="s">
+        <v>289</v>
+      </c>
+      <c r="G233" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>16</v>
+      </c>
+      <c r="B234" t="s">
+        <v>96</v>
+      </c>
+      <c r="C234" t="s">
+        <v>253</v>
+      </c>
+      <c r="D234" t="s">
+        <v>273</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234" t="s">
+        <v>347</v>
+      </c>
+      <c r="G234" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>17</v>
+      </c>
+      <c r="B235" t="s">
+        <v>96</v>
+      </c>
+      <c r="C235" t="s">
+        <v>254</v>
+      </c>
+      <c r="D235" t="s">
+        <v>273</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" t="s">
+        <v>347</v>
+      </c>
+      <c r="G235" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>18</v>
+      </c>
+      <c r="B236" t="s">
+        <v>29</v>
+      </c>
+      <c r="C236" t="s">
+        <v>148</v>
+      </c>
+      <c r="D236" t="s">
+        <v>273</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236" t="s">
+        <v>274</v>
+      </c>
+      <c r="G236" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>19</v>
+      </c>
+      <c r="B237" t="s">
+        <v>29</v>
+      </c>
+      <c r="C237" t="s">
+        <v>111</v>
+      </c>
+      <c r="D237" t="s">
+        <v>273</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" t="s">
+        <v>274</v>
+      </c>
+      <c r="G237" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>20</v>
+      </c>
+      <c r="B238" t="s">
+        <v>97</v>
+      </c>
+      <c r="C238" t="s">
+        <v>255</v>
+      </c>
+      <c r="D238" t="s">
+        <v>273</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" t="s">
+        <v>348</v>
+      </c>
+      <c r="G238" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>21</v>
+      </c>
+      <c r="B239" t="s">
+        <v>97</v>
+      </c>
+      <c r="C239" t="s">
+        <v>256</v>
+      </c>
+      <c r="D239" t="s">
+        <v>273</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239" t="s">
+        <v>348</v>
+      </c>
+      <c r="G239" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>22</v>
+      </c>
+      <c r="B240" t="s">
+        <v>43</v>
+      </c>
+      <c r="C240" t="s">
+        <v>174</v>
+      </c>
+      <c r="D240" t="s">
+        <v>273</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" t="s">
+        <v>307</v>
+      </c>
+      <c r="G240" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>23</v>
+      </c>
+      <c r="B241" t="s">
+        <v>43</v>
+      </c>
+      <c r="C241" t="s">
+        <v>175</v>
+      </c>
+      <c r="D241" t="s">
+        <v>273</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" t="s">
+        <v>307</v>
+      </c>
+      <c r="G241" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>24</v>
+      </c>
+      <c r="B242" t="s">
+        <v>67</v>
+      </c>
+      <c r="C242" t="s">
+        <v>214</v>
+      </c>
+      <c r="D242" t="s">
+        <v>273</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
+        <v>302</v>
+      </c>
+      <c r="G242" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>25</v>
+      </c>
+      <c r="B243" t="s">
+        <v>67</v>
+      </c>
+      <c r="C243" t="s">
+        <v>165</v>
+      </c>
+      <c r="D243" t="s">
+        <v>273</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" t="s">
+        <v>302</v>
+      </c>
+      <c r="G243" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>26</v>
+      </c>
+      <c r="B244" t="s">
+        <v>60</v>
+      </c>
+      <c r="C244" t="s">
+        <v>204</v>
+      </c>
+      <c r="D244" t="s">
+        <v>273</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244" t="s">
+        <v>279</v>
+      </c>
+      <c r="G244" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>27</v>
+      </c>
+      <c r="B245" t="s">
+        <v>60</v>
+      </c>
+      <c r="C245" t="s">
+        <v>121</v>
+      </c>
+      <c r="D245" t="s">
+        <v>273</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245" t="s">
+        <v>279</v>
+      </c>
+      <c r="G245" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>28</v>
+      </c>
+      <c r="B246" t="s">
+        <v>30</v>
+      </c>
+      <c r="C246" t="s">
+        <v>150</v>
+      </c>
+      <c r="D246" t="s">
+        <v>273</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246" t="s">
+        <v>294</v>
+      </c>
+      <c r="G246" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>29</v>
+      </c>
+      <c r="B247" t="s">
+        <v>30</v>
+      </c>
+      <c r="C247" t="s">
+        <v>151</v>
+      </c>
+      <c r="D247" t="s">
+        <v>273</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247" t="s">
+        <v>294</v>
+      </c>
+      <c r="G247" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>30</v>
+      </c>
+      <c r="B248" t="s">
+        <v>98</v>
+      </c>
+      <c r="C248" t="s">
+        <v>257</v>
+      </c>
+      <c r="D248" t="s">
+        <v>273</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248" t="s">
+        <v>349</v>
+      </c>
+      <c r="G248" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>31</v>
+      </c>
+      <c r="B249" t="s">
+        <v>98</v>
+      </c>
+      <c r="C249" t="s">
+        <v>258</v>
+      </c>
+      <c r="D249" t="s">
+        <v>273</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249" t="s">
+        <v>349</v>
+      </c>
+      <c r="G249" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>32</v>
+      </c>
+      <c r="B250" t="s">
         <v>99</v>
+      </c>
+      <c r="C250" t="s">
+        <v>259</v>
+      </c>
+      <c r="D250" t="s">
+        <v>273</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250" t="s">
+        <v>350</v>
+      </c>
+      <c r="G250" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>33</v>
+      </c>
+      <c r="B251" t="s">
+        <v>99</v>
+      </c>
+      <c r="C251" t="s">
+        <v>260</v>
+      </c>
+      <c r="D251" t="s">
+        <v>273</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251" t="s">
+        <v>350</v>
+      </c>
+      <c r="G251" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>34</v>
+      </c>
+      <c r="B252" t="s">
+        <v>100</v>
+      </c>
+      <c r="C252" t="s">
+        <v>142</v>
+      </c>
+      <c r="D252" t="s">
+        <v>273</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252" t="s">
+        <v>351</v>
+      </c>
+      <c r="G252" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>35</v>
+      </c>
+      <c r="B253" t="s">
+        <v>100</v>
+      </c>
+      <c r="C253" t="s">
+        <v>261</v>
+      </c>
+      <c r="D253" t="s">
+        <v>273</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253" t="s">
+        <v>351</v>
+      </c>
+      <c r="G253" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" t="s">
+        <v>116</v>
+      </c>
+      <c r="D254" t="s">
+        <v>273</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254" t="s">
+        <v>277</v>
+      </c>
+      <c r="G254" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" t="s">
+        <v>117</v>
+      </c>
+      <c r="D255" t="s">
+        <v>273</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255" t="s">
+        <v>277</v>
+      </c>
+      <c r="G255" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>2</v>
+      </c>
+      <c r="B256" t="s">
+        <v>23</v>
+      </c>
+      <c r="C256" t="s">
+        <v>142</v>
+      </c>
+      <c r="D256" t="s">
+        <v>273</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256" t="s">
+        <v>291</v>
+      </c>
+      <c r="G256" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>3</v>
+      </c>
+      <c r="B257" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257" t="s">
+        <v>143</v>
+      </c>
+      <c r="D257" t="s">
+        <v>273</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257" t="s">
+        <v>291</v>
+      </c>
+      <c r="G257" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>4</v>
+      </c>
+      <c r="B258" t="s">
+        <v>101</v>
+      </c>
+      <c r="C258" t="s">
+        <v>262</v>
+      </c>
+      <c r="D258" t="s">
+        <v>273</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258" t="s">
+        <v>352</v>
+      </c>
+      <c r="G258" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>5</v>
+      </c>
+      <c r="B259" t="s">
+        <v>101</v>
+      </c>
+      <c r="C259" t="s">
+        <v>263</v>
+      </c>
+      <c r="D259" t="s">
+        <v>273</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259" t="s">
+        <v>352</v>
+      </c>
+      <c r="G259" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>6</v>
+      </c>
+      <c r="B260" t="s">
+        <v>36</v>
+      </c>
+      <c r="C260" t="s">
+        <v>161</v>
+      </c>
+      <c r="D260" t="s">
+        <v>273</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>300</v>
+      </c>
+      <c r="G260" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>7</v>
+      </c>
+      <c r="B261" t="s">
+        <v>36</v>
+      </c>
+      <c r="C261" t="s">
+        <v>162</v>
+      </c>
+      <c r="D261" t="s">
+        <v>273</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" t="s">
+        <v>300</v>
+      </c>
+      <c r="G261" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>8</v>
+      </c>
+      <c r="B262" t="s">
+        <v>20</v>
+      </c>
+      <c r="C262" t="s">
+        <v>137</v>
+      </c>
+      <c r="D262" t="s">
+        <v>273</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" t="s">
+        <v>288</v>
+      </c>
+      <c r="G262" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>9</v>
+      </c>
+      <c r="B263" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" t="s">
+        <v>138</v>
+      </c>
+      <c r="D263" t="s">
+        <v>273</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263" t="s">
+        <v>288</v>
+      </c>
+      <c r="G263" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>10</v>
+      </c>
+      <c r="B264" t="s">
+        <v>102</v>
+      </c>
+      <c r="C264" t="s">
+        <v>112</v>
+      </c>
+      <c r="D264" t="s">
+        <v>273</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264" t="s">
+        <v>353</v>
+      </c>
+      <c r="G264" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>11</v>
+      </c>
+      <c r="B265" t="s">
+        <v>102</v>
+      </c>
+      <c r="C265" t="s">
+        <v>264</v>
+      </c>
+      <c r="D265" t="s">
+        <v>273</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265" t="s">
+        <v>353</v>
+      </c>
+      <c r="G265" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>12</v>
+      </c>
+      <c r="B266" t="s">
+        <v>16</v>
+      </c>
+      <c r="C266" t="s">
+        <v>130</v>
+      </c>
+      <c r="D266" t="s">
+        <v>273</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" t="s">
+        <v>284</v>
+      </c>
+      <c r="G266" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>13</v>
+      </c>
+      <c r="B267" t="s">
+        <v>16</v>
+      </c>
+      <c r="C267" t="s">
+        <v>131</v>
+      </c>
+      <c r="D267" t="s">
+        <v>273</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" t="s">
+        <v>284</v>
+      </c>
+      <c r="G267" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>14</v>
+      </c>
+      <c r="B268" t="s">
+        <v>44</v>
+      </c>
+      <c r="C268" t="s">
+        <v>176</v>
+      </c>
+      <c r="D268" t="s">
+        <v>273</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268" t="s">
+        <v>308</v>
+      </c>
+      <c r="G268" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>15</v>
+      </c>
+      <c r="B269" t="s">
+        <v>44</v>
+      </c>
+      <c r="C269" t="s">
+        <v>177</v>
+      </c>
+      <c r="D269" t="s">
+        <v>273</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269" t="s">
+        <v>308</v>
+      </c>
+      <c r="G269" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>16</v>
+      </c>
+      <c r="B270" t="s">
+        <v>103</v>
+      </c>
+      <c r="C270" t="s">
+        <v>206</v>
+      </c>
+      <c r="D270" t="s">
+        <v>273</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270" t="s">
+        <v>354</v>
+      </c>
+      <c r="G270" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>17</v>
+      </c>
+      <c r="B271" t="s">
+        <v>103</v>
+      </c>
+      <c r="C271" t="s">
+        <v>265</v>
+      </c>
+      <c r="D271" t="s">
+        <v>273</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271" t="s">
+        <v>354</v>
+      </c>
+      <c r="G271" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>18</v>
+      </c>
+      <c r="B272" t="s">
+        <v>104</v>
+      </c>
+      <c r="C272" t="s">
+        <v>266</v>
+      </c>
+      <c r="D272" t="s">
+        <v>273</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272" t="s">
+        <v>355</v>
+      </c>
+      <c r="G272" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1">
+        <v>19</v>
+      </c>
+      <c r="B273" t="s">
+        <v>104</v>
+      </c>
+      <c r="C273" t="s">
+        <v>267</v>
+      </c>
+      <c r="D273" t="s">
+        <v>273</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273" t="s">
+        <v>355</v>
+      </c>
+      <c r="G273" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1">
+        <v>20</v>
+      </c>
+      <c r="B274" t="s">
+        <v>105</v>
+      </c>
+      <c r="C274" t="s">
+        <v>209</v>
+      </c>
+      <c r="D274" t="s">
+        <v>273</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274" t="s">
+        <v>356</v>
+      </c>
+      <c r="G274" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1">
+        <v>21</v>
+      </c>
+      <c r="B275" t="s">
+        <v>105</v>
+      </c>
+      <c r="C275" t="s">
+        <v>268</v>
+      </c>
+      <c r="D275" t="s">
+        <v>273</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275" t="s">
+        <v>356</v>
+      </c>
+      <c r="G275" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1">
+        <v>22</v>
+      </c>
+      <c r="B276" t="s">
+        <v>106</v>
+      </c>
+      <c r="C276" t="s">
+        <v>241</v>
+      </c>
+      <c r="D276" t="s">
+        <v>273</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276" t="s">
+        <v>357</v>
+      </c>
+      <c r="G276" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1">
+        <v>23</v>
+      </c>
+      <c r="B277" t="s">
+        <v>106</v>
+      </c>
+      <c r="C277" t="s">
+        <v>269</v>
+      </c>
+      <c r="D277" t="s">
+        <v>273</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277" t="s">
+        <v>357</v>
+      </c>
+      <c r="G277" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1">
+        <v>24</v>
+      </c>
+      <c r="B278" t="s">
+        <v>64</v>
+      </c>
+      <c r="C278" t="s">
+        <v>209</v>
+      </c>
+      <c r="D278" t="s">
+        <v>273</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278" t="s">
+        <v>289</v>
+      </c>
+      <c r="G278" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1">
+        <v>25</v>
+      </c>
+      <c r="B279" t="s">
+        <v>107</v>
+      </c>
+      <c r="C279" t="s">
+        <v>270</v>
+      </c>
+      <c r="D279" t="s">
+        <v>273</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279" t="s">
+        <v>280</v>
+      </c>
+      <c r="G279" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1">
+        <v>26</v>
+      </c>
+      <c r="B280" t="s">
+        <v>107</v>
+      </c>
+      <c r="C280" t="s">
+        <v>123</v>
+      </c>
+      <c r="D280" t="s">
+        <v>273</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280" t="s">
+        <v>280</v>
+      </c>
+      <c r="G280" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1">
+        <v>27</v>
+      </c>
+      <c r="B281" t="s">
+        <v>54</v>
+      </c>
+      <c r="C281" t="s">
+        <v>193</v>
+      </c>
+      <c r="D281" t="s">
+        <v>273</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281" t="s">
+        <v>317</v>
+      </c>
+      <c r="G281" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1">
+        <v>28</v>
+      </c>
+      <c r="B282" t="s">
+        <v>54</v>
+      </c>
+      <c r="C282" t="s">
+        <v>194</v>
+      </c>
+      <c r="D282" t="s">
+        <v>273</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282" t="s">
+        <v>317</v>
+      </c>
+      <c r="G282" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1">
+        <v>29</v>
+      </c>
+      <c r="B283" t="s">
+        <v>108</v>
+      </c>
+      <c r="C283" t="s">
+        <v>204</v>
+      </c>
+      <c r="D283" t="s">
+        <v>273</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283" t="s">
+        <v>315</v>
+      </c>
+      <c r="G283" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1">
+        <v>30</v>
+      </c>
+      <c r="B284" t="s">
+        <v>108</v>
+      </c>
+      <c r="C284" t="s">
+        <v>190</v>
+      </c>
+      <c r="D284" t="s">
+        <v>273</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" t="s">
+        <v>315</v>
+      </c>
+      <c r="G284" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1">
+        <v>31</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>110</v>
+      </c>
+      <c r="D285" t="s">
+        <v>273</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285" t="s">
+        <v>274</v>
+      </c>
+      <c r="G285" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1">
+        <v>32</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>111</v>
+      </c>
+      <c r="D286" t="s">
+        <v>273</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286" t="s">
+        <v>274</v>
+      </c>
+      <c r="G286" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1">
+        <v>33</v>
+      </c>
+      <c r="B287" t="s">
+        <v>109</v>
+      </c>
+      <c r="C287" t="s">
+        <v>271</v>
+      </c>
+      <c r="D287" t="s">
+        <v>273</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287" t="s">
+        <v>358</v>
+      </c>
+      <c r="G287" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1">
+        <v>34</v>
+      </c>
+      <c r="B288" t="s">
+        <v>109</v>
+      </c>
+      <c r="C288" t="s">
+        <v>272</v>
+      </c>
+      <c r="D288" t="s">
+        <v>273</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288" t="s">
+        <v>358</v>
+      </c>
+      <c r="G288" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
